--- a/demo_portfolio_excel.xlsx
+++ b/demo_portfolio_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AniqueKhan\Code Repositories\demo_portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B27E5D6-AC20-4F49-A509-B450F4FBC68F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404E5604-DF35-43FF-AC07-4F72EF34ED23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" firstSheet="1" activeTab="9" xr2:uid="{AEF8CCA4-55DF-47C9-998A-0C95064B493A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" firstSheet="3" activeTab="12" xr2:uid="{AEF8CCA4-55DF-47C9-998A-0C95064B493A}"/>
   </bookViews>
   <sheets>
     <sheet name="8 Dec" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,8 @@
     <sheet name="20 Dec" sheetId="9" r:id="rId9"/>
     <sheet name="21 Dec" sheetId="10" r:id="rId10"/>
     <sheet name="22 Dec" sheetId="11" r:id="rId11"/>
+    <sheet name="26 Dec" sheetId="12" r:id="rId12"/>
+    <sheet name="27 Dec" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="58">
   <si>
     <t>Symbol</t>
   </si>
@@ -178,52 +180,37 @@
     <t>Total Profit/Loss</t>
   </si>
   <si>
-    <t> -2.21%</t>
+    <t>Portfolio Balancing Day</t>
   </si>
   <si>
-    <t> -0.86</t>
+    <t>BAFL</t>
   </si>
   <si>
-    <t> -6.54%</t>
+    <t>Bank Alfalah Limited</t>
   </si>
   <si>
-    <t> -1.95%</t>
+    <t>POWER</t>
   </si>
   <si>
-    <t> -4.43</t>
+    <t>Power Cement Limited</t>
   </si>
   <si>
-    <t> -3.60%</t>
+    <t>HIFA</t>
   </si>
   <si>
-    <t> 1.53</t>
+    <t>HBL Investment Fund</t>
   </si>
   <si>
-    <t> 0.41</t>
+    <t>AHL</t>
   </si>
   <si>
-    <t> -0.18</t>
+    <t>Arif Habib Limited</t>
   </si>
   <si>
-    <t> -0.39</t>
+    <t>SYS</t>
   </si>
   <si>
-    <t> -6.93</t>
-  </si>
-  <si>
-    <t> -7.44%</t>
-  </si>
-  <si>
-    <t> 1.46%</t>
-  </si>
-  <si>
-    <t> 6.27%</t>
-  </si>
-  <si>
-    <t> 2.07%</t>
-  </si>
-  <si>
-    <t> 2.44</t>
+    <t>Systems Limited</t>
   </si>
 </sst>
 </file>
@@ -581,7 +568,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1015,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2BEDC6-B80B-469C-A8B2-D8EB4A293DAE}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="A1:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1087,39 +1074,39 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>117.52</v>
+        <v>118.05</v>
       </c>
       <c r="D2">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E2">
-        <v>114.72</v>
+        <v>115.2</v>
       </c>
       <c r="F2">
-        <v>11284.199999999999</v>
+        <v>8872.5</v>
       </c>
       <c r="G2">
         <f>PRODUCT(D2,E2)</f>
-        <v>10324.799999999999</v>
+        <v>8064</v>
       </c>
       <c r="H2">
         <f>G2-F2</f>
-        <v>-959.39999999999964</v>
+        <v>-808.5</v>
       </c>
       <c r="I2">
-        <v>1.91</v>
+        <v>0.5</v>
       </c>
       <c r="J2">
-        <v>1.66E-2</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="K2">
-        <v>9371700</v>
+        <v>7101491</v>
       </c>
       <c r="L2">
         <v>645139260</v>
       </c>
       <c r="M2">
-        <v>533788223.72000003</v>
+        <v>529014193.19999999</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -1130,82 +1117,82 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>22.51</v>
+        <v>22.98</v>
       </c>
       <c r="D3">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="E3">
-        <v>21.46</v>
+        <v>21.97</v>
       </c>
       <c r="F3">
-        <v>1151.82</v>
+        <v>2242.02</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G11" si="0">PRODUCT(D3,E3)</f>
-        <v>1158.8400000000001</v>
+        <v>1889.4199999999998</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H11" si="1">G3-F3</f>
-        <v>7.0200000000002092</v>
+        <v>-352.60000000000014</v>
       </c>
       <c r="I3">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="J3">
-        <v>7.1800000000000003E-2</v>
+        <v>7.4899999999999994E-2</v>
       </c>
       <c r="K3">
-        <v>23138986</v>
+        <v>30108719</v>
       </c>
       <c r="L3">
         <v>428006078</v>
       </c>
       <c r="M3">
-        <v>21485905.09</v>
+        <v>20886696.579999998</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C4">
-        <v>117.18</v>
+        <v>48.52</v>
       </c>
       <c r="D4">
         <v>70</v>
       </c>
       <c r="E4">
-        <v>118.71</v>
+        <v>48.93</v>
       </c>
       <c r="F4">
-        <v>8636.6</v>
+        <v>3491.6000000000004</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>8309.6999999999989</v>
+        <v>3425.1</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>-326.90000000000146</v>
+        <v>-66.500000000000455</v>
       </c>
       <c r="I4">
-        <v>-0.81</v>
+        <v>-0.88</v>
       </c>
       <c r="J4">
-        <v>-6.7999999999999996E-3</v>
+        <v>-7.1999999999999998E-3</v>
       </c>
       <c r="K4">
-        <v>2843174</v>
+        <v>3348106</v>
       </c>
       <c r="L4">
         <v>972865790</v>
       </c>
       <c r="M4">
-        <v>156916767.77000001</v>
+        <v>156631393.80000001</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -1216,39 +1203,39 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="D5">
-        <v>202</v>
+        <v>600</v>
       </c>
       <c r="E5">
-        <v>5.77</v>
+        <v>6.01</v>
       </c>
       <c r="F5">
-        <v>894.8599999999999</v>
+        <v>3144</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>1165.54</v>
+        <v>3606</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>270.68000000000006</v>
+        <v>462</v>
       </c>
       <c r="I5">
-        <v>-0.17</v>
+        <v>-0.02</v>
       </c>
       <c r="J5">
-        <v>-0.17</v>
+        <v>-4.4000000000000003E-3</v>
       </c>
       <c r="K5">
-        <v>209399163</v>
+        <v>35741651</v>
       </c>
       <c r="L5">
         <v>2761519425</v>
       </c>
       <c r="M5">
-        <v>149950504.75</v>
+        <v>124268374.09999999</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -1259,39 +1246,39 @@
         <v>40</v>
       </c>
       <c r="C6">
-        <v>11.13</v>
+        <v>10.8</v>
       </c>
       <c r="D6">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="E6">
-        <v>11.54</v>
+        <v>11.4</v>
       </c>
       <c r="F6">
-        <v>1482</v>
+        <v>628.83000000000004</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>1384.8</v>
+        <v>581.4</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>-97.200000000000045</v>
+        <v>-47.430000000000064</v>
       </c>
       <c r="I6">
-        <v>0.68</v>
+        <v>-0.06</v>
       </c>
       <c r="J6">
-        <v>5.8900000000000001E-2</v>
+        <v>-4.8999999999999998E-3</v>
       </c>
       <c r="K6">
-        <v>967253</v>
+        <v>821145</v>
       </c>
       <c r="L6">
         <v>8623425</v>
       </c>
       <c r="M6">
-        <v>4555320.97</v>
+        <v>4540324.03</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -1302,39 +1289,39 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <v>6.72</v>
+        <v>6.55</v>
       </c>
       <c r="D7">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="E7">
-        <v>6.54</v>
+        <v>6.6</v>
       </c>
       <c r="F7">
-        <v>1701</v>
+        <v>9024</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>1962</v>
+        <v>7920</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>261</v>
+        <v>-1104</v>
       </c>
       <c r="I7">
-        <v>0.41</v>
-      </c>
-      <c r="J7" t="s">
-        <v>60</v>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J7">
+        <v>9.06E-2</v>
       </c>
       <c r="K7">
-        <v>32840152</v>
+        <v>54403778</v>
       </c>
       <c r="L7">
         <v>1381554339</v>
       </c>
       <c r="M7">
-        <v>24929358.23</v>
+        <v>22442965.539999999</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -1345,39 +1332,39 @@
         <v>28</v>
       </c>
       <c r="C8">
-        <v>24.56</v>
+        <v>24.92</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>24.17</v>
+        <v>24.1</v>
       </c>
       <c r="F8">
-        <v>1351</v>
+        <v>539.6</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>1208.5</v>
+        <v>482</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>-142.5</v>
+        <v>-57.600000000000023</v>
       </c>
       <c r="I8">
-        <v>0.5</v>
-      </c>
-      <c r="J8" t="s">
-        <v>61</v>
+        <v>-0.54</v>
+      </c>
+      <c r="J8">
+        <v>-1.9599999999999999E-2</v>
       </c>
       <c r="K8">
-        <v>222597</v>
+        <v>798509</v>
       </c>
       <c r="L8">
         <v>74252857</v>
       </c>
       <c r="M8">
-        <v>7885653.3899999997</v>
+        <v>8016338.4100000001</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -1388,82 +1375,82 @@
         <v>30</v>
       </c>
       <c r="C9">
-        <v>307.14</v>
+        <v>308.89</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E9">
-        <v>300.20999999999998</v>
+        <v>302</v>
       </c>
       <c r="F9">
-        <v>31492</v>
+        <v>42403.39</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>30020.999999999996</v>
+        <v>39562</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>-1471.0000000000036</v>
+        <v>-2841.3899999999994</v>
       </c>
       <c r="I9">
-        <v>-3.52</v>
+        <v>0.5</v>
       </c>
       <c r="J9">
-        <v>-1.17E-2</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="K9">
-        <v>754517</v>
+        <v>728302</v>
       </c>
       <c r="L9">
         <v>268313234</v>
       </c>
       <c r="M9">
-        <v>171715103.5</v>
+        <v>172369787.78999999</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C10">
-        <v>145.47</v>
+        <v>5.58</v>
       </c>
       <c r="D10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E10">
-        <v>145.47</v>
+        <v>5.59</v>
       </c>
       <c r="F10">
-        <v>30620.399999999998</v>
+        <v>1115.44</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>27639.3</v>
+        <v>1067.69</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>-2981.0999999999985</v>
+        <v>-47.75</v>
       </c>
       <c r="I10">
-        <v>-10.82</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
+        <v>-0.63</v>
+      </c>
+      <c r="J10">
+        <v>-3.8999999999999998E-3</v>
       </c>
       <c r="K10">
-        <v>17000</v>
+        <v>6900</v>
       </c>
       <c r="L10">
         <v>20070662</v>
       </c>
       <c r="M10">
-        <v>15032925.84</v>
+        <v>16056529.6</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -1474,58 +1461,53 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <v>118.64</v>
+        <v>120.3</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E11">
-        <v>120.37</v>
+        <v>124.01</v>
       </c>
       <c r="F11">
-        <v>11385</v>
+        <v>28534.760000000002</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>12037</v>
+        <v>28026.260000000002</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>652</v>
-      </c>
-      <c r="I11" t="s">
-        <v>62</v>
+        <v>-508.5</v>
+      </c>
+      <c r="I11">
+        <v>2.16</v>
       </c>
       <c r="J11">
-        <v>2.0299999999999999E-2</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="K11">
-        <v>14079720</v>
+        <v>9265930</v>
       </c>
       <c r="L11">
         <v>667914508</v>
       </c>
       <c r="M11">
-        <v>333155266.57999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F13">
+        <v>319169493.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F12">
         <f>SUM(F2:F11)</f>
-        <v>99998.87999999999</v>
-      </c>
-      <c r="G13">
+        <v>99996.140000000014</v>
+      </c>
+      <c r="G12">
         <f>SUM(G2:G11)</f>
-        <v>95211.48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15">
-        <f>G13-F13</f>
-        <v>-4787.3999999999942</v>
+        <v>94623.87</v>
+      </c>
+      <c r="H12">
+        <f>SUM(H2:H11)</f>
+        <v>-5372.27</v>
       </c>
     </row>
   </sheetData>
@@ -1542,11 +1524,12 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://dps.psx.com.pk/company/PAEL" xr:uid="{B041C0FA-B310-4A36-AB7B-B7B1664D760A}"/>
-    <hyperlink ref="A5" r:id="rId2" display="https://dps.psx.com.pk/company/KEL" xr:uid="{7F44882D-9542-4D11-A501-8527A476B0EA}"/>
-    <hyperlink ref="A7" r:id="rId3" display="https://dps.psx.com.pk/company/BOP" xr:uid="{E229ECDC-7D8A-400E-B362-185EC4DDE9D5}"/>
-    <hyperlink ref="A9" r:id="rId4" display="https://dps.psx.com.pk/company/ENGRO" xr:uid="{BD875024-6FFE-4CDA-87F9-BA4DBCA0994E}"/>
-    <hyperlink ref="A11" r:id="rId5" display="https://dps.psx.com.pk/company/PPL" xr:uid="{EFF022A1-78DB-4F69-B25F-14031F6BEA63}"/>
+    <hyperlink ref="A3" r:id="rId1" display="https://dps.psx.com.pk/company/PAEL" xr:uid="{0F9FEF85-1BF1-4E9D-8F6F-F75BB7C9C819}"/>
+    <hyperlink ref="A5" r:id="rId2" display="https://dps.psx.com.pk/company/KEL" xr:uid="{ECCA4752-EFBD-4DD7-955E-7E25DFD20227}"/>
+    <hyperlink ref="A7" r:id="rId3" display="https://dps.psx.com.pk/company/BOP" xr:uid="{BE325D30-3475-49AF-A783-49A934BF3A60}"/>
+    <hyperlink ref="A9" r:id="rId4" display="https://dps.psx.com.pk/company/ENGRO" xr:uid="{DB30D4A4-36B9-4459-A27D-8A99EE46D742}"/>
+    <hyperlink ref="A11" r:id="rId5" display="https://dps.psx.com.pk/company/PPL" xr:uid="{F70BA07C-6945-47C0-8F51-710AA89FF2C0}"/>
+    <hyperlink ref="B4" r:id="rId6" display="https://dps.psx.com.pk/company/BAFL" xr:uid="{EE3A203A-1211-467C-90B4-773714407BB6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1554,22 +1537,2142 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B092FF-DFD5-41B4-9189-A1F30FA86964}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:F27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>115.2</v>
+      </c>
+      <c r="D2">
+        <v>70</v>
+      </c>
+      <c r="E2">
+        <v>116.9</v>
+      </c>
+      <c r="F2">
+        <v>8872.5</v>
+      </c>
+      <c r="G2">
+        <f>PRODUCT(D2,E2)</f>
+        <v>8183</v>
+      </c>
+      <c r="H2">
+        <f>G2-F2</f>
+        <v>-689.5</v>
+      </c>
+      <c r="I2">
+        <v>0.5</v>
+      </c>
+      <c r="J2">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="K2">
+        <v>7101491</v>
+      </c>
+      <c r="L2">
+        <v>645139260</v>
+      </c>
+      <c r="M2">
+        <v>529014193.19999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>21.97</v>
+      </c>
+      <c r="D3">
+        <v>86</v>
+      </c>
+      <c r="E3">
+        <v>23.39</v>
+      </c>
+      <c r="F3">
+        <v>2242.02</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="0">PRODUCT(D3,E3)</f>
+        <v>2011.54</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="1">G3-F3</f>
+        <v>-230.48000000000002</v>
+      </c>
+      <c r="I3">
+        <v>1.7</v>
+      </c>
+      <c r="J3">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="K3">
+        <v>30108719</v>
+      </c>
+      <c r="L3">
+        <v>428006078</v>
+      </c>
+      <c r="M3">
+        <v>20886696.579999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>48.93</v>
+      </c>
+      <c r="D4">
+        <v>70</v>
+      </c>
+      <c r="E4">
+        <v>48.74</v>
+      </c>
+      <c r="F4">
+        <v>3491.6000000000004</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>3411.8</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>-79.800000000000182</v>
+      </c>
+      <c r="I4">
+        <v>-0.88</v>
+      </c>
+      <c r="J4">
+        <v>-7.1999999999999998E-3</v>
+      </c>
+      <c r="K4">
+        <v>3348106</v>
+      </c>
+      <c r="L4">
+        <v>972865790</v>
+      </c>
+      <c r="M4">
+        <v>156631393.80000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>6.01</v>
+      </c>
+      <c r="D5">
+        <v>600</v>
+      </c>
+      <c r="E5">
+        <v>5.55</v>
+      </c>
+      <c r="F5">
+        <v>3144</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>3330</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>186</v>
+      </c>
+      <c r="I5">
+        <v>-0.02</v>
+      </c>
+      <c r="J5">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="K5">
+        <v>35741651</v>
+      </c>
+      <c r="L5">
+        <v>2761519425</v>
+      </c>
+      <c r="M5">
+        <v>124268374.09999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>11.4</v>
+      </c>
+      <c r="D6">
+        <v>51</v>
+      </c>
+      <c r="E6">
+        <v>12.39</v>
+      </c>
+      <c r="F6">
+        <v>628.83000000000004</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>631.89</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>3.0599999999999454</v>
+      </c>
+      <c r="I6">
+        <v>-0.06</v>
+      </c>
+      <c r="J6">
+        <v>-4.8999999999999998E-3</v>
+      </c>
+      <c r="K6">
+        <v>821145</v>
+      </c>
+      <c r="L6">
+        <v>8623425</v>
+      </c>
+      <c r="M6">
+        <v>4540324.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>6.6</v>
+      </c>
+      <c r="D7">
+        <v>1200</v>
+      </c>
+      <c r="E7">
+        <v>7.09</v>
+      </c>
+      <c r="F7">
+        <v>9024</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>8508</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>-516</v>
+      </c>
+      <c r="I7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J7">
+        <v>9.06E-2</v>
+      </c>
+      <c r="K7">
+        <v>54403778</v>
+      </c>
+      <c r="L7">
+        <v>1381554339</v>
+      </c>
+      <c r="M7">
+        <v>22442965.539999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>24.1</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>24.7</v>
+      </c>
+      <c r="F8">
+        <v>539.6</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>494</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>-45.600000000000023</v>
+      </c>
+      <c r="I8">
+        <v>-0.54</v>
+      </c>
+      <c r="J8">
+        <v>-1.9599999999999999E-2</v>
+      </c>
+      <c r="K8">
+        <v>798509</v>
+      </c>
+      <c r="L8">
+        <v>74252857</v>
+      </c>
+      <c r="M8">
+        <v>8016338.4100000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>302</v>
+      </c>
+      <c r="D9">
+        <v>131</v>
+      </c>
+      <c r="E9">
+        <v>297.88</v>
+      </c>
+      <c r="F9">
+        <v>42403.39</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>39022.28</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>-3381.1100000000006</v>
+      </c>
+      <c r="I9">
+        <v>0.5</v>
+      </c>
+      <c r="J9">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="K9">
+        <v>728302</v>
+      </c>
+      <c r="L9">
+        <v>268313234</v>
+      </c>
+      <c r="M9">
+        <v>172369787.78999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>5.59</v>
+      </c>
+      <c r="D10">
+        <v>191</v>
+      </c>
+      <c r="E10">
+        <v>5.65</v>
+      </c>
+      <c r="F10">
+        <v>1115.44</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>1079.1500000000001</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>-36.289999999999964</v>
+      </c>
+      <c r="I10">
+        <v>-0.63</v>
+      </c>
+      <c r="J10">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="K10">
+        <v>6900</v>
+      </c>
+      <c r="L10">
+        <v>20070662</v>
+      </c>
+      <c r="M10">
+        <v>16056529.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>124.01</v>
+      </c>
+      <c r="D11">
+        <v>226</v>
+      </c>
+      <c r="E11">
+        <v>123</v>
+      </c>
+      <c r="F11">
+        <v>28534.760000000002</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>27798</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>-736.76000000000204</v>
+      </c>
+      <c r="I11">
+        <v>2.16</v>
+      </c>
+      <c r="J11">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="K11">
+        <v>9265930</v>
+      </c>
+      <c r="L11">
+        <v>667914508</v>
+      </c>
+      <c r="M11">
+        <v>319169493.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <f>SUM(F2:F11)</f>
+        <v>99996.140000000014</v>
+      </c>
+      <c r="G12">
+        <f>SUM(G2:G11)</f>
+        <v>94469.659999999989</v>
+      </c>
+      <c r="H12">
+        <f>SUM(H2:H11)</f>
+        <v>-5526.4800000000023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>115.2</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>116.9</v>
+      </c>
+      <c r="F18">
+        <f>E18*D18</f>
+        <v>1753.5</v>
+      </c>
+      <c r="G18">
+        <f>PRODUCT(D18,E18)</f>
+        <v>1753.5</v>
+      </c>
+      <c r="H18">
+        <f>G18-F18</f>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0.5</v>
+      </c>
+      <c r="J18">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="K18">
+        <v>7101491</v>
+      </c>
+      <c r="L18">
+        <v>645139260</v>
+      </c>
+      <c r="M18">
+        <v>529014193.19999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>21.97</v>
+      </c>
+      <c r="D19">
+        <v>86</v>
+      </c>
+      <c r="E19">
+        <v>23.39</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ref="F19:F27" si="2">E19*D19</f>
+        <v>2011.54</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ref="G19:G27" si="3">PRODUCT(D19,E19)</f>
+        <v>2011.54</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:H27" si="4">G19-F19</f>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1.7</v>
+      </c>
+      <c r="J19">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="K19">
+        <v>30108719</v>
+      </c>
+      <c r="L19">
+        <v>428006078</v>
+      </c>
+      <c r="M19">
+        <v>20886696.579999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20">
+        <v>48.93</v>
+      </c>
+      <c r="D20">
+        <v>78</v>
+      </c>
+      <c r="E20">
+        <v>48.74</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>3801.7200000000003</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>3801.7200000000003</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>-0.88</v>
+      </c>
+      <c r="J20">
+        <v>-7.1999999999999998E-3</v>
+      </c>
+      <c r="K20">
+        <v>3348106</v>
+      </c>
+      <c r="L20">
+        <v>972865790</v>
+      </c>
+      <c r="M20">
+        <v>156631393.80000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>6.01</v>
+      </c>
+      <c r="D21">
+        <v>5400</v>
+      </c>
+      <c r="E21">
+        <v>5.55</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>29970</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>29970</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>-0.02</v>
+      </c>
+      <c r="J21">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="K21">
+        <v>35741651</v>
+      </c>
+      <c r="L21">
+        <v>2761519425</v>
+      </c>
+      <c r="M21">
+        <v>124268374.09999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>11.4</v>
+      </c>
+      <c r="D22">
+        <v>31</v>
+      </c>
+      <c r="E22">
+        <v>12.39</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>384.09000000000003</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>384.09000000000003</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>-0.06</v>
+      </c>
+      <c r="J22">
+        <v>-4.8999999999999998E-3</v>
+      </c>
+      <c r="K22">
+        <v>821145</v>
+      </c>
+      <c r="L22">
+        <v>8623425</v>
+      </c>
+      <c r="M22">
+        <v>4540324.03</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>6.6</v>
+      </c>
+      <c r="D23">
+        <v>1800</v>
+      </c>
+      <c r="E23">
+        <v>7.09</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>12762</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>12762</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J23">
+        <v>9.06E-2</v>
+      </c>
+      <c r="K23">
+        <v>54403778</v>
+      </c>
+      <c r="L23">
+        <v>1381554339</v>
+      </c>
+      <c r="M23">
+        <v>22442965.539999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24">
+        <v>3.6</v>
+      </c>
+      <c r="D24">
+        <v>101</v>
+      </c>
+      <c r="E24">
+        <v>3.6</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>363.6</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>363.6</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>-0.54</v>
+      </c>
+      <c r="J24">
+        <v>-1.9599999999999999E-2</v>
+      </c>
+      <c r="K24">
+        <v>798509</v>
+      </c>
+      <c r="L24">
+        <v>74252857</v>
+      </c>
+      <c r="M24">
+        <v>8016338.4100000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25">
+        <v>43.03</v>
+      </c>
+      <c r="D25">
+        <v>131</v>
+      </c>
+      <c r="E25">
+        <v>42.6</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>5580.6</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>5580.6</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0.5</v>
+      </c>
+      <c r="J25">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="K25">
+        <v>728302</v>
+      </c>
+      <c r="L25">
+        <v>268313234</v>
+      </c>
+      <c r="M25">
+        <v>172369787.78999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26">
+        <v>5.59</v>
+      </c>
+      <c r="D26">
+        <v>30</v>
+      </c>
+      <c r="E26">
+        <v>5.65</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>169.5</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>169.5</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>-0.63</v>
+      </c>
+      <c r="J26">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="K26">
+        <v>6900</v>
+      </c>
+      <c r="L26">
+        <v>20070662</v>
+      </c>
+      <c r="M26">
+        <v>16056529.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27">
+        <v>428.55</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>432</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>43200</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>43200</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>2.16</v>
+      </c>
+      <c r="J27">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="K27">
+        <v>9265930</v>
+      </c>
+      <c r="L27">
+        <v>667914508</v>
+      </c>
+      <c r="M27">
+        <v>319169493.38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F28">
+        <f>SUM(F18:F27)</f>
+        <v>99996.549999999988</v>
+      </c>
+      <c r="G28">
+        <f>SUM(G18:G27)</f>
+        <v>99996.549999999988</v>
+      </c>
+      <c r="H28">
+        <f>SUM(H18:H27)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H2:H11">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:H27">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="https://dps.psx.com.pk/company/PAEL" xr:uid="{20BFAC7D-EF4D-4C2C-9CCA-96377C581FD7}"/>
+    <hyperlink ref="A5" r:id="rId2" display="https://dps.psx.com.pk/company/KEL" xr:uid="{52E50717-0C74-4B7D-87BF-B64E9CFAA556}"/>
+    <hyperlink ref="A7" r:id="rId3" display="https://dps.psx.com.pk/company/BOP" xr:uid="{339BB4D9-F2F5-449C-86F1-EBC000EDAA55}"/>
+    <hyperlink ref="A9" r:id="rId4" display="https://dps.psx.com.pk/company/ENGRO" xr:uid="{22348A6A-E6A7-4663-9F15-61AC6972618E}"/>
+    <hyperlink ref="A11" r:id="rId5" display="https://dps.psx.com.pk/company/PPL" xr:uid="{D869F453-3309-4B67-9816-DC238F898164}"/>
+    <hyperlink ref="B4" r:id="rId6" display="https://dps.psx.com.pk/company/BAFL" xr:uid="{F2612654-CFF6-4BF3-A2F5-17A08705B9A8}"/>
+    <hyperlink ref="A19" r:id="rId7" display="https://dps.psx.com.pk/company/PAEL" xr:uid="{2E91DCE1-AA29-4C7E-96C0-A3576D8D2FA1}"/>
+    <hyperlink ref="A21" r:id="rId8" display="https://dps.psx.com.pk/company/KEL" xr:uid="{1E10651D-34A4-4303-8A0C-80269BE7FDD4}"/>
+    <hyperlink ref="A23" r:id="rId9" display="https://dps.psx.com.pk/company/BOP" xr:uid="{31D21586-4BC7-4E66-9566-7CF8405AC80F}"/>
+    <hyperlink ref="B20" r:id="rId10" display="https://dps.psx.com.pk/company/BAFL" xr:uid="{9BD699C9-F641-45C1-A0D0-B55EF7B01EE3}"/>
+    <hyperlink ref="B24" r:id="rId11" display="https://dps.psx.com.pk/company/HIFA" xr:uid="{8DF7B5FE-6A74-4575-B1DD-650E13AF7F7B}"/>
+    <hyperlink ref="A25" r:id="rId12" display="https://dps.psx.com.pk/company/AHL" xr:uid="{6ED951F4-0C99-4B3B-951B-4300D8E2563E}"/>
+    <hyperlink ref="B25" r:id="rId13" display="https://dps.psx.com.pk/company/AHL" xr:uid="{010015F2-E429-4E97-82A2-EEDB0464A298}"/>
+    <hyperlink ref="A27" r:id="rId14" display="https://dps.psx.com.pk/company/SYS" xr:uid="{71C41AD5-A718-427B-8285-79AD47163FF3}"/>
+    <hyperlink ref="B27" r:id="rId15" display="https://dps.psx.com.pk/company/SYS" xr:uid="{4889CD2C-F1B9-4E04-ACB6-4B2CF4FD0240}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80FDDC5-024A-45C5-82F4-EFC9F7345E51}">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="A1:M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>116.9</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>113</v>
+      </c>
+      <c r="F2">
+        <v>1753.5</v>
+      </c>
+      <c r="G2">
+        <f>PRODUCT(D2,E2)</f>
+        <v>1695</v>
+      </c>
+      <c r="H2">
+        <f>G2-F2</f>
+        <v>-58.5</v>
+      </c>
+      <c r="I2">
+        <v>0.5</v>
+      </c>
+      <c r="J2">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="K2">
+        <v>7101491</v>
+      </c>
+      <c r="L2">
+        <v>645139260</v>
+      </c>
+      <c r="M2">
+        <v>529014193.19999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>23.39</v>
+      </c>
+      <c r="D3">
+        <v>86</v>
+      </c>
+      <c r="E3">
+        <v>21.6</v>
+      </c>
+      <c r="F3">
+        <v>2011.54</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="0">PRODUCT(D3,E3)</f>
+        <v>1857.6000000000001</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="1">G3-F3</f>
+        <v>-153.93999999999983</v>
+      </c>
+      <c r="I3">
+        <v>1.7</v>
+      </c>
+      <c r="J3">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="K3">
+        <v>30108719</v>
+      </c>
+      <c r="L3">
+        <v>428006078</v>
+      </c>
+      <c r="M3">
+        <v>20886696.579999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>48.74</v>
+      </c>
+      <c r="D4">
+        <v>78</v>
+      </c>
+      <c r="E4">
+        <v>47.5</v>
+      </c>
+      <c r="F4">
+        <v>3801.7200000000003</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>3705</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>-96.720000000000255</v>
+      </c>
+      <c r="I4">
+        <v>-0.88</v>
+      </c>
+      <c r="J4">
+        <v>-7.1999999999999998E-3</v>
+      </c>
+      <c r="K4">
+        <v>3348106</v>
+      </c>
+      <c r="L4">
+        <v>972865790</v>
+      </c>
+      <c r="M4">
+        <v>156631393.80000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>5.55</v>
+      </c>
+      <c r="D5">
+        <v>5400</v>
+      </c>
+      <c r="E5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F5">
+        <v>29970</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>27539.999999999996</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>-2430.0000000000036</v>
+      </c>
+      <c r="I5">
+        <v>-0.02</v>
+      </c>
+      <c r="J5">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="K5">
+        <v>35741651</v>
+      </c>
+      <c r="L5">
+        <v>2761519425</v>
+      </c>
+      <c r="M5">
+        <v>124268374.09999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>12.39</v>
+      </c>
+      <c r="D6">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>12.24</v>
+      </c>
+      <c r="F6">
+        <v>384.09000000000003</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>379.44</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>-4.6500000000000341</v>
+      </c>
+      <c r="I6">
+        <v>-0.06</v>
+      </c>
+      <c r="J6">
+        <v>-4.8999999999999998E-3</v>
+      </c>
+      <c r="K6">
+        <v>821145</v>
+      </c>
+      <c r="L6">
+        <v>8623425</v>
+      </c>
+      <c r="M6">
+        <v>4540324.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>7.09</v>
+      </c>
+      <c r="D7">
+        <v>1800</v>
+      </c>
+      <c r="E7">
+        <v>6.59</v>
+      </c>
+      <c r="F7">
+        <v>12762</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>11862</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>-900</v>
+      </c>
+      <c r="I7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J7">
+        <v>9.06E-2</v>
+      </c>
+      <c r="K7">
+        <v>54403778</v>
+      </c>
+      <c r="L7">
+        <v>1381554339</v>
+      </c>
+      <c r="M7">
+        <v>22442965.539999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8">
+        <v>3.6</v>
+      </c>
+      <c r="D8">
+        <v>101</v>
+      </c>
+      <c r="E8">
+        <v>3.49</v>
+      </c>
+      <c r="F8">
+        <v>363.6</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>352.49</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>-11.110000000000014</v>
+      </c>
+      <c r="I8">
+        <v>-0.54</v>
+      </c>
+      <c r="J8">
+        <v>-1.9599999999999999E-2</v>
+      </c>
+      <c r="K8">
+        <v>798509</v>
+      </c>
+      <c r="L8">
+        <v>74252857</v>
+      </c>
+      <c r="M8">
+        <v>8016338.4100000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9">
+        <v>42.6</v>
+      </c>
+      <c r="D9">
+        <v>131</v>
+      </c>
+      <c r="E9">
+        <v>43.45</v>
+      </c>
+      <c r="F9">
+        <v>5580.6</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>5691.9500000000007</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>111.35000000000036</v>
+      </c>
+      <c r="I9">
+        <v>0.5</v>
+      </c>
+      <c r="J9">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="K9">
+        <v>728302</v>
+      </c>
+      <c r="L9">
+        <v>268313234</v>
+      </c>
+      <c r="M9">
+        <v>172369787.78999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>5.65</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>5.36</v>
+      </c>
+      <c r="F10">
+        <v>169.5</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>160.80000000000001</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>-8.6999999999999886</v>
+      </c>
+      <c r="I10">
+        <v>-0.63</v>
+      </c>
+      <c r="J10">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="K10">
+        <v>6900</v>
+      </c>
+      <c r="L10">
+        <v>20070662</v>
+      </c>
+      <c r="M10">
+        <v>16056529.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11">
+        <v>432</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>423</v>
+      </c>
+      <c r="F11">
+        <v>43200</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>42300</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>-900</v>
+      </c>
+      <c r="I11">
+        <v>2.16</v>
+      </c>
+      <c r="J11">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="K11">
+        <v>9265930</v>
+      </c>
+      <c r="L11">
+        <v>667914508</v>
+      </c>
+      <c r="M11">
+        <v>319169493.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <f>SUM(F2:F11)</f>
+        <v>99996.549999999988</v>
+      </c>
+      <c r="G12">
+        <f>SUM(G2:G11)</f>
+        <v>95544.28</v>
+      </c>
+      <c r="H12">
+        <f>SUM(H2:H11)</f>
+        <v>-4452.2700000000032</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H2:H11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="https://dps.psx.com.pk/company/PAEL" xr:uid="{B46C2559-36E4-4B10-A9C7-770EB61934F4}"/>
+    <hyperlink ref="A5" r:id="rId2" display="https://dps.psx.com.pk/company/KEL" xr:uid="{83CAAB7A-B31F-4CAC-8A38-9F70A3C49AFB}"/>
+    <hyperlink ref="A7" r:id="rId3" display="https://dps.psx.com.pk/company/BOP" xr:uid="{2BD5B288-BDAD-479C-B70B-7B70886725E1}"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://dps.psx.com.pk/company/BAFL" xr:uid="{47799CA3-E7BE-4F94-88B7-41157D100DC9}"/>
+    <hyperlink ref="B8" r:id="rId5" display="https://dps.psx.com.pk/company/HIFA" xr:uid="{AD52BC2F-D8B2-4BC1-A229-4069E512F660}"/>
+    <hyperlink ref="A9" r:id="rId6" display="https://dps.psx.com.pk/company/AHL" xr:uid="{AFC2A898-FFD7-4059-A923-953E24C62EBD}"/>
+    <hyperlink ref="B9" r:id="rId7" display="https://dps.psx.com.pk/company/AHL" xr:uid="{E888101F-C9AE-4960-8E6A-C04C134329C6}"/>
+    <hyperlink ref="A11" r:id="rId8" display="https://dps.psx.com.pk/company/SYS" xr:uid="{F6B8E664-7723-49B2-BDDE-B25B7DEC8F6E}"/>
+    <hyperlink ref="B11" r:id="rId9" display="https://dps.psx.com.pk/company/SYS" xr:uid="{ADFD8D97-8324-4B19-AACC-D50FAFCC2527}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE96F92A-5CDE-4FBE-AFCE-DB214C269EBD}">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="A1:M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>113</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>106.8</v>
+      </c>
+      <c r="F2">
+        <v>1753.5</v>
+      </c>
+      <c r="G2">
+        <f>PRODUCT(D2,E2)</f>
+        <v>1602</v>
+      </c>
+      <c r="H2">
+        <f>G2-F2</f>
+        <v>-151.5</v>
+      </c>
+      <c r="I2">
+        <v>0.5</v>
+      </c>
+      <c r="J2">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="K2">
+        <v>7101491</v>
+      </c>
+      <c r="L2">
+        <v>645139260</v>
+      </c>
+      <c r="M2">
+        <v>529014193.19999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>21.6</v>
+      </c>
+      <c r="D3">
+        <v>86</v>
+      </c>
+      <c r="E3">
+        <v>20.41</v>
+      </c>
+      <c r="F3">
+        <v>2011.54</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="0">PRODUCT(D3,E3)</f>
+        <v>1755.26</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="1">G3-F3</f>
+        <v>-256.27999999999997</v>
+      </c>
+      <c r="I3">
+        <v>1.7</v>
+      </c>
+      <c r="J3">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="K3">
+        <v>30108719</v>
+      </c>
+      <c r="L3">
+        <v>428006078</v>
+      </c>
+      <c r="M3">
+        <v>20886696.579999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>47.5</v>
+      </c>
+      <c r="D4">
+        <v>78</v>
+      </c>
+      <c r="E4">
+        <v>47</v>
+      </c>
+      <c r="F4">
+        <v>3801.7200000000003</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>3666</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>-135.72000000000025</v>
+      </c>
+      <c r="I4">
+        <v>-0.88</v>
+      </c>
+      <c r="J4">
+        <v>-7.1999999999999998E-3</v>
+      </c>
+      <c r="K4">
+        <v>3348106</v>
+      </c>
+      <c r="L4">
+        <v>972865790</v>
+      </c>
+      <c r="M4">
+        <v>156631393.80000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D5">
+        <v>5400</v>
+      </c>
+      <c r="E5">
+        <v>4.72</v>
+      </c>
+      <c r="F5">
+        <v>29970</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>25488</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>-4482</v>
+      </c>
+      <c r="I5">
+        <v>-0.02</v>
+      </c>
+      <c r="J5">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="K5">
+        <v>35741651</v>
+      </c>
+      <c r="L5">
+        <v>2761519425</v>
+      </c>
+      <c r="M5">
+        <v>124268374.09999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>12.24</v>
+      </c>
+      <c r="D6">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>12.05</v>
+      </c>
+      <c r="F6">
+        <v>384.09000000000003</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>373.55</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>-10.54000000000002</v>
+      </c>
+      <c r="I6">
+        <v>-0.06</v>
+      </c>
+      <c r="J6">
+        <v>-4.8999999999999998E-3</v>
+      </c>
+      <c r="K6">
+        <v>821145</v>
+      </c>
+      <c r="L6">
+        <v>8623425</v>
+      </c>
+      <c r="M6">
+        <v>4540324.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>6.59</v>
+      </c>
+      <c r="D7">
+        <v>1800</v>
+      </c>
+      <c r="E7">
+        <v>6.18</v>
+      </c>
+      <c r="F7">
+        <v>12762</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>11124</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>-1638</v>
+      </c>
+      <c r="I7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J7">
+        <v>9.06E-2</v>
+      </c>
+      <c r="K7">
+        <v>54403778</v>
+      </c>
+      <c r="L7">
+        <v>1381554339</v>
+      </c>
+      <c r="M7">
+        <v>22442965.539999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8">
+        <v>3.49</v>
+      </c>
+      <c r="D8">
+        <v>101</v>
+      </c>
+      <c r="E8">
+        <v>3.49</v>
+      </c>
+      <c r="F8">
+        <v>363.6</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>352.49</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>-11.110000000000014</v>
+      </c>
+      <c r="I8">
+        <v>-0.54</v>
+      </c>
+      <c r="J8">
+        <v>-1.9599999999999999E-2</v>
+      </c>
+      <c r="K8">
+        <v>798509</v>
+      </c>
+      <c r="L8">
+        <v>74252857</v>
+      </c>
+      <c r="M8">
+        <v>8016338.4100000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9">
+        <v>43.45</v>
+      </c>
+      <c r="D9">
+        <v>131</v>
+      </c>
+      <c r="E9">
+        <v>41</v>
+      </c>
+      <c r="F9">
+        <v>5580.6</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>5371</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>-209.60000000000036</v>
+      </c>
+      <c r="I9">
+        <v>0.5</v>
+      </c>
+      <c r="J9">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="K9">
+        <v>728302</v>
+      </c>
+      <c r="L9">
+        <v>268313234</v>
+      </c>
+      <c r="M9">
+        <v>172369787.78999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>5.36</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>5.48</v>
+      </c>
+      <c r="F10">
+        <v>169.5</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>164.4</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>-5.0999999999999943</v>
+      </c>
+      <c r="I10">
+        <v>-0.63</v>
+      </c>
+      <c r="J10">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="K10">
+        <v>6900</v>
+      </c>
+      <c r="L10">
+        <v>20070662</v>
+      </c>
+      <c r="M10">
+        <v>16056529.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11">
+        <v>423</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>416</v>
+      </c>
+      <c r="F11">
+        <v>43200</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>41600</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>-1600</v>
+      </c>
+      <c r="I11">
+        <v>2.16</v>
+      </c>
+      <c r="J11">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="K11">
+        <v>9265930</v>
+      </c>
+      <c r="L11">
+        <v>667914508</v>
+      </c>
+      <c r="M11">
+        <v>319169493.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <f>SUM(F2:F11)</f>
+        <v>99996.549999999988</v>
+      </c>
+      <c r="G12">
+        <f>SUM(G2:G11)</f>
+        <v>91496.700000000012</v>
+      </c>
+      <c r="H12">
+        <f>SUM(H2:H11)</f>
+        <v>-8499.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H2:H11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="https://dps.psx.com.pk/company/PAEL" xr:uid="{356FDA8A-F3D3-4919-83E1-ADC8F66FF608}"/>
+    <hyperlink ref="A5" r:id="rId2" display="https://dps.psx.com.pk/company/KEL" xr:uid="{23B26710-581A-4F53-9090-5B1817DA5036}"/>
+    <hyperlink ref="A7" r:id="rId3" display="https://dps.psx.com.pk/company/BOP" xr:uid="{EB256E4C-AA34-4C72-AD73-6A7AC171ACDA}"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://dps.psx.com.pk/company/BAFL" xr:uid="{5DC6DAC9-B40F-436B-904C-100379EEDC5A}"/>
+    <hyperlink ref="B8" r:id="rId5" display="https://dps.psx.com.pk/company/HIFA" xr:uid="{C3AC8D0F-5B3A-416D-BC93-718CF58EB11C}"/>
+    <hyperlink ref="A9" r:id="rId6" display="https://dps.psx.com.pk/company/AHL" xr:uid="{CB145CE9-F076-42F1-9E6C-ECD17AB02712}"/>
+    <hyperlink ref="B9" r:id="rId7" display="https://dps.psx.com.pk/company/AHL" xr:uid="{B1ADAF60-8B43-4236-AF71-AC9A381382C7}"/>
+    <hyperlink ref="A11" r:id="rId8" display="https://dps.psx.com.pk/company/SYS" xr:uid="{9307C57B-B3C1-44D8-9A2C-35798D778E36}"/>
+    <hyperlink ref="B11" r:id="rId9" display="https://dps.psx.com.pk/company/SYS" xr:uid="{D9885D5B-1198-4F16-9345-236A7BFB5A7B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EA0E02-F313-4D09-A4E8-B30C83EA59BE}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2060,22 +4163,17 @@
         <v>310081461.76999998</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F12">
         <f>SUM(F2:F11)</f>
         <v>99998.87999999999</v>
       </c>
-      <c r="G13">
+      <c r="G12">
         <f>SUM(G2:G11)</f>
         <v>100835.28</v>
       </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17">
-        <f>G13-F13</f>
+      <c r="H12">
+        <f>G12-F12</f>
         <v>836.40000000000873</v>
       </c>
     </row>
@@ -2106,10 +4204,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D12E300-22A5-41B8-AAAC-A3E7762EA500}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2600,22 +4698,17 @@
         <v>313020106.72000003</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F12">
         <f>SUM(F2:F11)</f>
         <v>99998.87999999999</v>
       </c>
-      <c r="G13">
+      <c r="G12">
         <f>SUM(G2:G11)</f>
         <v>102527.16</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15">
-        <f>G13-F13</f>
+      <c r="H12">
+        <f>G12-F12</f>
         <v>2528.2800000000134</v>
       </c>
     </row>
@@ -2646,10 +4739,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1198DF-03C2-487A-9A0A-57EB780C2CDC}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3140,22 +5233,17 @@
         <v>317264816.10000002</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F12">
         <f>SUM(F2:F11)</f>
         <v>99998.87999999999</v>
       </c>
-      <c r="G13">
+      <c r="G12">
         <f>SUM(G2:G11)</f>
         <v>100404.18000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15">
-        <f>G13-F13</f>
+      <c r="H12">
+        <f>G12-F12</f>
         <v>405.30000000001746</v>
       </c>
     </row>
@@ -3186,10 +5274,1043 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E145ED0-E26D-4A63-9987-DB945288EF38}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:AP15"/>
   <sheetViews>
     <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AK13" sqref="AK13"/>
+      <selection activeCell="AI16" sqref="AI16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>126.3</v>
+      </c>
+      <c r="D2">
+        <v>90</v>
+      </c>
+      <c r="E2">
+        <v>123</v>
+      </c>
+      <c r="F2">
+        <v>11284.199999999999</v>
+      </c>
+      <c r="G2">
+        <f>PRODUCT(D2,E2)</f>
+        <v>11070</v>
+      </c>
+      <c r="H2">
+        <f>G2-F2</f>
+        <v>-214.19999999999891</v>
+      </c>
+      <c r="I2">
+        <v>0.5</v>
+      </c>
+      <c r="J2">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="K2">
+        <v>7101491</v>
+      </c>
+      <c r="L2">
+        <v>645139260</v>
+      </c>
+      <c r="M2">
+        <v>529014193.19999999</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF2">
+        <v>126.3</v>
+      </c>
+      <c r="AG2">
+        <v>90</v>
+      </c>
+      <c r="AH2">
+        <v>122.5</v>
+      </c>
+      <c r="AI2">
+        <v>11284.199999999999</v>
+      </c>
+      <c r="AJ2">
+        <f>PRODUCT(AG2,AH2)</f>
+        <v>11025</v>
+      </c>
+      <c r="AK2">
+        <f>AJ2-AI2</f>
+        <v>-259.19999999999891</v>
+      </c>
+      <c r="AL2">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AM2">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="AN2">
+        <v>10971586</v>
+      </c>
+      <c r="AO2">
+        <v>645139260</v>
+      </c>
+      <c r="AP2">
+        <v>543207256.91999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>22.36</v>
+      </c>
+      <c r="D3">
+        <v>54</v>
+      </c>
+      <c r="E3">
+        <v>24.4</v>
+      </c>
+      <c r="F3">
+        <v>1151.82</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="0">PRODUCT(D3,E3)</f>
+        <v>1317.6</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="1">G3-F3</f>
+        <v>165.77999999999997</v>
+      </c>
+      <c r="I3">
+        <v>1.7</v>
+      </c>
+      <c r="J3">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="K3">
+        <v>30108719</v>
+      </c>
+      <c r="L3">
+        <v>428006078</v>
+      </c>
+      <c r="M3">
+        <v>20886696.579999998</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF3">
+        <v>22.36</v>
+      </c>
+      <c r="AG3">
+        <v>54</v>
+      </c>
+      <c r="AH3">
+        <v>22.7</v>
+      </c>
+      <c r="AI3">
+        <v>1151.82</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" ref="AJ3:AJ11" si="2">PRODUCT(AG3,AH3)</f>
+        <v>1225.8</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" ref="AK3:AK11" si="3">AJ3-AI3</f>
+        <v>73.980000000000018</v>
+      </c>
+      <c r="AL3">
+        <v>0.52</v>
+      </c>
+      <c r="AM3">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="AN3">
+        <v>25314943</v>
+      </c>
+      <c r="AO3">
+        <v>428006078</v>
+      </c>
+      <c r="AP3">
+        <v>19140431.789999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>121.98</v>
+      </c>
+      <c r="D4">
+        <v>70</v>
+      </c>
+      <c r="E4">
+        <v>120.75</v>
+      </c>
+      <c r="F4">
+        <v>8636.6</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>8452.5</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>-184.10000000000036</v>
+      </c>
+      <c r="I4">
+        <v>-0.88</v>
+      </c>
+      <c r="J4">
+        <v>-7.1999999999999998E-3</v>
+      </c>
+      <c r="K4">
+        <v>3348106</v>
+      </c>
+      <c r="L4">
+        <v>972865790</v>
+      </c>
+      <c r="M4">
+        <v>156631393.80000001</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF4">
+        <v>121.98</v>
+      </c>
+      <c r="AG4">
+        <v>70</v>
+      </c>
+      <c r="AH4">
+        <v>121.63</v>
+      </c>
+      <c r="AI4">
+        <v>8636.6</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="2"/>
+        <v>8514.1</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" si="3"/>
+        <v>-122.5</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>0.83</v>
+      </c>
+      <c r="AN4">
+        <v>8087334</v>
+      </c>
+      <c r="AO4">
+        <v>972865790</v>
+      </c>
+      <c r="AP4">
+        <v>158226893.71000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>4.57</v>
+      </c>
+      <c r="D5">
+        <v>202</v>
+      </c>
+      <c r="E5">
+        <v>4.5</v>
+      </c>
+      <c r="F5">
+        <v>894.8599999999999</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>909</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>14.1400000000001</v>
+      </c>
+      <c r="I5">
+        <v>-0.02</v>
+      </c>
+      <c r="J5">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="K5">
+        <v>35741651</v>
+      </c>
+      <c r="L5">
+        <v>2761519425</v>
+      </c>
+      <c r="M5">
+        <v>124268374.09999999</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF5">
+        <v>4.57</v>
+      </c>
+      <c r="AG5">
+        <v>202</v>
+      </c>
+      <c r="AH5">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="AI5">
+        <v>894.8599999999999</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="2"/>
+        <v>913.04</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" si="3"/>
+        <v>18.180000000000064</v>
+      </c>
+      <c r="AL5">
+        <v>0.03</v>
+      </c>
+      <c r="AM5">
+        <v>6.6E-3</v>
+      </c>
+      <c r="AN5">
+        <v>62276399</v>
+      </c>
+      <c r="AO5">
+        <v>2761519425</v>
+      </c>
+      <c r="AP5">
+        <v>126201437.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>12.8</v>
+      </c>
+      <c r="D6">
+        <v>120</v>
+      </c>
+      <c r="E6">
+        <v>12.11</v>
+      </c>
+      <c r="F6">
+        <v>1482</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>1453.1999999999998</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>-28.800000000000182</v>
+      </c>
+      <c r="I6">
+        <v>-0.06</v>
+      </c>
+      <c r="J6">
+        <v>-4.8999999999999998E-3</v>
+      </c>
+      <c r="K6">
+        <v>821145</v>
+      </c>
+      <c r="L6">
+        <v>8623425</v>
+      </c>
+      <c r="M6">
+        <v>4540324.03</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF6">
+        <v>12.8</v>
+      </c>
+      <c r="AG6">
+        <v>120</v>
+      </c>
+      <c r="AH6">
+        <v>12.17</v>
+      </c>
+      <c r="AI6">
+        <v>1482</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="2"/>
+        <v>1460.4</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="3"/>
+        <v>-21.599999999999909</v>
+      </c>
+      <c r="AL6">
+        <v>-0.19</v>
+      </c>
+      <c r="AM6">
+        <v>-1.46E-2</v>
+      </c>
+      <c r="AN6">
+        <v>1774443</v>
+      </c>
+      <c r="AO6">
+        <v>8623425</v>
+      </c>
+      <c r="AP6">
+        <v>4799021.2699999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>6.34</v>
+      </c>
+      <c r="D7">
+        <v>300</v>
+      </c>
+      <c r="E7">
+        <v>6.86</v>
+      </c>
+      <c r="F7">
+        <v>1701</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>2058</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>357</v>
+      </c>
+      <c r="I7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J7">
+        <v>9.06E-2</v>
+      </c>
+      <c r="K7">
+        <v>54403778</v>
+      </c>
+      <c r="L7">
+        <v>1381554339</v>
+      </c>
+      <c r="M7">
+        <v>22442965.539999999</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF7">
+        <v>6.34</v>
+      </c>
+      <c r="AG7">
+        <v>300</v>
+      </c>
+      <c r="AH7">
+        <v>6.29</v>
+      </c>
+      <c r="AI7">
+        <v>1701</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="2"/>
+        <v>1887</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="3"/>
+        <v>186</v>
+      </c>
+      <c r="AL7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AM7">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="AN7">
+        <v>86601496</v>
+      </c>
+      <c r="AO7">
+        <v>1381554339</v>
+      </c>
+      <c r="AP7">
+        <v>20741749.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>26.2</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>26.99</v>
+      </c>
+      <c r="F8">
+        <v>1351</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>1349.5</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>-1.5</v>
+      </c>
+      <c r="I8">
+        <v>-0.54</v>
+      </c>
+      <c r="J8">
+        <v>-1.9599999999999999E-2</v>
+      </c>
+      <c r="K8">
+        <v>798509</v>
+      </c>
+      <c r="L8">
+        <v>74252857</v>
+      </c>
+      <c r="M8">
+        <v>8016338.4100000001</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF8">
+        <v>26.2</v>
+      </c>
+      <c r="AG8">
+        <v>50</v>
+      </c>
+      <c r="AH8">
+        <v>27.53</v>
+      </c>
+      <c r="AI8">
+        <v>1351</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="2"/>
+        <v>1376.5</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="3"/>
+        <v>25.5</v>
+      </c>
+      <c r="AL8">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="AM8">
+        <v>-2.1700000000000001E-2</v>
+      </c>
+      <c r="AN8">
+        <v>511298</v>
+      </c>
+      <c r="AO8">
+        <v>74252857</v>
+      </c>
+      <c r="AP8">
+        <v>7781699.3899999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>315.60000000000002</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>321.20999999999998</v>
+      </c>
+      <c r="F9">
+        <v>31492</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>32120.999999999996</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>628.99999999999636</v>
+      </c>
+      <c r="I9">
+        <v>0.5</v>
+      </c>
+      <c r="J9">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="K9">
+        <v>728302</v>
+      </c>
+      <c r="L9">
+        <v>268313234</v>
+      </c>
+      <c r="M9">
+        <v>172369787.78999999</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF9">
+        <v>315.60000000000002</v>
+      </c>
+      <c r="AG9">
+        <v>100</v>
+      </c>
+      <c r="AH9">
+        <v>320.70999999999998</v>
+      </c>
+      <c r="AI9">
+        <v>31492</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="2"/>
+        <v>32070.999999999996</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="3"/>
+        <v>578.99999999999636</v>
+      </c>
+      <c r="AL9">
+        <v>-9.5</v>
+      </c>
+      <c r="AM9">
+        <v>-2.92E-2</v>
+      </c>
+      <c r="AN9">
+        <v>878424</v>
+      </c>
+      <c r="AO9">
+        <v>268313234</v>
+      </c>
+      <c r="AP9">
+        <v>169359313.30000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>160</v>
+      </c>
+      <c r="D10">
+        <v>190</v>
+      </c>
+      <c r="E10">
+        <v>160</v>
+      </c>
+      <c r="F10">
+        <v>30620.399999999998</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>30400</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>-220.39999999999782</v>
+      </c>
+      <c r="I10">
+        <v>-0.63</v>
+      </c>
+      <c r="J10">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="K10">
+        <v>6900</v>
+      </c>
+      <c r="L10">
+        <v>20070662</v>
+      </c>
+      <c r="M10">
+        <v>16056529.6</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF10">
+        <v>160</v>
+      </c>
+      <c r="AG10">
+        <v>190</v>
+      </c>
+      <c r="AH10">
+        <v>160.63</v>
+      </c>
+      <c r="AI10">
+        <v>30620.399999999998</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="2"/>
+        <v>30519.7</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="3"/>
+        <v>-100.69999999999709</v>
+      </c>
+      <c r="AL10">
+        <v>8.25</v>
+      </c>
+      <c r="AM10">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+      <c r="AN10">
+        <v>5300</v>
+      </c>
+      <c r="AO10">
+        <v>20070662</v>
+      </c>
+      <c r="AP10">
+        <v>16056529.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>116.6</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>117.3</v>
+      </c>
+      <c r="F11">
+        <v>11385</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>11730</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>345</v>
+      </c>
+      <c r="I11">
+        <v>2.16</v>
+      </c>
+      <c r="J11">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="K11">
+        <v>9265930</v>
+      </c>
+      <c r="L11">
+        <v>667914508</v>
+      </c>
+      <c r="M11">
+        <v>319169493.38</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF11">
+        <v>116.6</v>
+      </c>
+      <c r="AG11">
+        <v>100</v>
+      </c>
+      <c r="AH11">
+        <v>115.14</v>
+      </c>
+      <c r="AI11">
+        <v>11385</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="2"/>
+        <v>11514</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+      <c r="AL11">
+        <v>1.56</v>
+      </c>
+      <c r="AM11">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="AN11">
+        <v>12877975</v>
+      </c>
+      <c r="AO11">
+        <v>667914508</v>
+      </c>
+      <c r="AP11">
+        <v>317264816.10000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="AI12">
+        <f>SUM(AI2:AI11)</f>
+        <v>99998.87999999999</v>
+      </c>
+      <c r="AJ12">
+        <f>SUM(AJ2:AJ11)</f>
+        <v>100506.54</v>
+      </c>
+      <c r="AK12">
+        <f>SUM(AK2:AK11)</f>
+        <v>507.66000000000054</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="F13">
+        <f>SUM(F2:F11)</f>
+        <v>99998.87999999999</v>
+      </c>
+      <c r="G13">
+        <f>SUM(G2:G11)</f>
+        <v>100860.79999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15">
+        <f>G13-F13</f>
+        <v>861.91999999999825</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H2:H11 H13">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK2:AK12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="https://dps.psx.com.pk/company/PAEL" xr:uid="{CF9E4854-B949-4727-9BC8-D0A3A7D9C7E6}"/>
+    <hyperlink ref="A5" r:id="rId2" display="https://dps.psx.com.pk/company/KEL" xr:uid="{196AE57B-93FA-45B2-A61E-54D20607B226}"/>
+    <hyperlink ref="A7" r:id="rId3" display="https://dps.psx.com.pk/company/BOP" xr:uid="{CA052B90-5D0F-441A-9A02-7B12C4EC7B5C}"/>
+    <hyperlink ref="A9" r:id="rId4" display="https://dps.psx.com.pk/company/ENGRO" xr:uid="{2C837D25-8C77-4E80-9F29-9213FD8D09C3}"/>
+    <hyperlink ref="A11" r:id="rId5" display="https://dps.psx.com.pk/company/PPL" xr:uid="{92A17BA3-6481-416D-9E11-222AABC58BBF}"/>
+    <hyperlink ref="AD3" r:id="rId6" display="https://dps.psx.com.pk/company/PAEL" xr:uid="{ABDF0EDB-3F59-4931-9344-8AE2CF7E1082}"/>
+    <hyperlink ref="AD5" r:id="rId7" display="https://dps.psx.com.pk/company/KEL" xr:uid="{0A7D24C9-4779-4A3E-9A08-7C3354FE311D}"/>
+    <hyperlink ref="AD7" r:id="rId8" display="https://dps.psx.com.pk/company/BOP" xr:uid="{168A1EDE-3111-402A-9736-2C35C8331CED}"/>
+    <hyperlink ref="AD9" r:id="rId9" display="https://dps.psx.com.pk/company/ENGRO" xr:uid="{8D06BE6B-68C5-4FB3-A1F7-1A817CB489FC}"/>
+    <hyperlink ref="AD11" r:id="rId10" display="https://dps.psx.com.pk/company/PPL" xr:uid="{70BB28AE-253E-48ED-8651-042F2159F201}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A6B874-C030-46BE-B492-E1BD863FDAD6}">
+  <dimension ref="A1:M34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3258,24 +6379,24 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>126.3</v>
+        <v>123</v>
       </c>
       <c r="D2">
         <v>90</v>
       </c>
       <c r="E2">
-        <v>123</v>
+        <v>126.75</v>
       </c>
       <c r="F2">
         <v>11284.199999999999</v>
       </c>
       <c r="G2">
         <f>PRODUCT(D2,E2)</f>
-        <v>11070</v>
+        <v>11407.5</v>
       </c>
       <c r="H2">
         <f>G2-F2</f>
-        <v>-214.19999999999891</v>
+        <v>123.30000000000109</v>
       </c>
       <c r="I2">
         <v>0.5</v>
@@ -3301,24 +6422,24 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>22.36</v>
+        <v>24.4</v>
       </c>
       <c r="D3">
         <v>54</v>
       </c>
       <c r="E3">
-        <v>24.4</v>
+        <v>26.07</v>
       </c>
       <c r="F3">
         <v>1151.82</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G11" si="0">PRODUCT(D3,E3)</f>
-        <v>1317.6</v>
+        <v>1407.78</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H11" si="1">G3-F3</f>
-        <v>165.77999999999997</v>
+        <v>255.96000000000004</v>
       </c>
       <c r="I3">
         <v>1.7</v>
@@ -3344,24 +6465,24 @@
         <v>39</v>
       </c>
       <c r="C4">
-        <v>121.98</v>
+        <v>120.75</v>
       </c>
       <c r="D4">
         <v>70</v>
       </c>
       <c r="E4">
-        <v>120.75</v>
+        <v>120.29</v>
       </c>
       <c r="F4">
         <v>8636.6</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>8452.5</v>
+        <v>8420.3000000000011</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>-184.10000000000036</v>
+        <v>-216.29999999999927</v>
       </c>
       <c r="I4">
         <v>-0.88</v>
@@ -3387,24 +6508,24 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>4.57</v>
+        <v>4.5</v>
       </c>
       <c r="D5">
         <v>202</v>
       </c>
       <c r="E5">
-        <v>4.5</v>
+        <v>5.24</v>
       </c>
       <c r="F5">
         <v>894.8599999999999</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>909</v>
+        <v>1058.48</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>14.1400000000001</v>
+        <v>163.62000000000012</v>
       </c>
       <c r="I5">
         <v>-0.02</v>
@@ -3430,24 +6551,24 @@
         <v>40</v>
       </c>
       <c r="C6">
-        <v>12.8</v>
+        <v>12.11</v>
       </c>
       <c r="D6">
         <v>120</v>
       </c>
       <c r="E6">
-        <v>12.11</v>
+        <v>12.33</v>
       </c>
       <c r="F6">
         <v>1482</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>1453.1999999999998</v>
+        <v>1479.6</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>-28.800000000000182</v>
+        <v>-2.4000000000000909</v>
       </c>
       <c r="I6">
         <v>-0.06</v>
@@ -3473,24 +6594,24 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <v>6.34</v>
+        <v>6.86</v>
       </c>
       <c r="D7">
         <v>300</v>
       </c>
       <c r="E7">
-        <v>6.86</v>
+        <v>7.52</v>
       </c>
       <c r="F7">
         <v>1701</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>2058</v>
+        <v>2256</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>357</v>
+        <v>555</v>
       </c>
       <c r="I7">
         <v>0.56999999999999995</v>
@@ -3516,24 +6637,24 @@
         <v>28</v>
       </c>
       <c r="C8">
-        <v>26.2</v>
+        <v>26.99</v>
       </c>
       <c r="D8">
         <v>50</v>
       </c>
       <c r="E8">
-        <v>26.99</v>
+        <v>26.98</v>
       </c>
       <c r="F8">
         <v>1351</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>1349.5</v>
+        <v>1349</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="I8">
         <v>-0.54</v>
@@ -3559,24 +6680,24 @@
         <v>30</v>
       </c>
       <c r="C9">
-        <v>315.60000000000002</v>
+        <v>321.20999999999998</v>
       </c>
       <c r="D9">
         <v>100</v>
       </c>
       <c r="E9">
-        <v>321.20999999999998</v>
+        <v>323.69</v>
       </c>
       <c r="F9">
         <v>31492</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>32120.999999999996</v>
+        <v>32369</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>628.99999999999636</v>
+        <v>877</v>
       </c>
       <c r="I9">
         <v>0.5</v>
@@ -3608,18 +6729,18 @@
         <v>190</v>
       </c>
       <c r="E10">
-        <v>160</v>
+        <v>155.72999999999999</v>
       </c>
       <c r="F10">
         <v>30620.399999999998</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>30400</v>
+        <v>29588.699999999997</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>-220.39999999999782</v>
+        <v>-1031.7000000000007</v>
       </c>
       <c r="I10">
         <v>-0.63</v>
@@ -3645,24 +6766,24 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <v>116.6</v>
+        <v>117.3</v>
       </c>
       <c r="D11">
         <v>100</v>
       </c>
       <c r="E11">
-        <v>117.3</v>
+        <v>126.26</v>
       </c>
       <c r="F11">
         <v>11385</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>11730</v>
+        <v>12626</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>345</v>
+        <v>1241</v>
       </c>
       <c r="I11">
         <v>2.16</v>
@@ -3680,568 +6801,520 @@
         <v>319169493.38</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F12">
         <f>SUM(F2:F11)</f>
         <v>99998.87999999999</v>
       </c>
-      <c r="G13">
-        <f>SUM(G2:G11)</f>
-        <v>100860.79999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15">
-        <f>G13-F13</f>
-        <v>861.91999999999825</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="H2:H11 H13">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://dps.psx.com.pk/company/PAEL" xr:uid="{CF9E4854-B949-4727-9BC8-D0A3A7D9C7E6}"/>
-    <hyperlink ref="A5" r:id="rId2" display="https://dps.psx.com.pk/company/KEL" xr:uid="{196AE57B-93FA-45B2-A61E-54D20607B226}"/>
-    <hyperlink ref="A7" r:id="rId3" display="https://dps.psx.com.pk/company/BOP" xr:uid="{CA052B90-5D0F-441A-9A02-7B12C4EC7B5C}"/>
-    <hyperlink ref="A9" r:id="rId4" display="https://dps.psx.com.pk/company/ENGRO" xr:uid="{2C837D25-8C77-4E80-9F29-9213FD8D09C3}"/>
-    <hyperlink ref="A11" r:id="rId5" display="https://dps.psx.com.pk/company/PPL" xr:uid="{92A17BA3-6481-416D-9E11-222AABC58BBF}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A6B874-C030-46BE-B492-E1BD863FDAD6}">
-  <dimension ref="A1:M15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.26953125" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>123</v>
-      </c>
-      <c r="D2">
-        <v>90</v>
-      </c>
-      <c r="E2">
-        <v>126.75</v>
-      </c>
-      <c r="F2">
-        <v>11284.199999999999</v>
-      </c>
-      <c r="G2">
-        <f>PRODUCT(D2,E2)</f>
-        <v>11407.5</v>
-      </c>
-      <c r="H2">
-        <f>G2-F2</f>
-        <v>123.30000000000109</v>
-      </c>
-      <c r="I2">
-        <v>0.5</v>
-      </c>
-      <c r="J2">
-        <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="K2">
-        <v>7101491</v>
-      </c>
-      <c r="L2">
-        <v>645139260</v>
-      </c>
-      <c r="M2">
-        <v>529014193.19999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>24.4</v>
-      </c>
-      <c r="D3">
-        <v>54</v>
-      </c>
-      <c r="E3">
-        <v>26.07</v>
-      </c>
-      <c r="F3">
-        <v>1151.82</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G11" si="0">PRODUCT(D3,E3)</f>
-        <v>1407.78</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H11" si="1">G3-F3</f>
-        <v>255.96000000000004</v>
-      </c>
-      <c r="I3">
-        <v>1.7</v>
-      </c>
-      <c r="J3">
-        <v>7.4899999999999994E-2</v>
-      </c>
-      <c r="K3">
-        <v>30108719</v>
-      </c>
-      <c r="L3">
-        <v>428006078</v>
-      </c>
-      <c r="M3">
-        <v>20886696.579999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4">
-        <v>120.75</v>
-      </c>
-      <c r="D4">
-        <v>70</v>
-      </c>
-      <c r="E4">
-        <v>120.29</v>
-      </c>
-      <c r="F4">
-        <v>8636.6</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>8420.3000000000011</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
-        <v>-216.29999999999927</v>
-      </c>
-      <c r="I4">
-        <v>-0.88</v>
-      </c>
-      <c r="J4">
-        <v>-7.1999999999999998E-3</v>
-      </c>
-      <c r="K4">
-        <v>3348106</v>
-      </c>
-      <c r="L4">
-        <v>972865790</v>
-      </c>
-      <c r="M4">
-        <v>156631393.80000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>4.5</v>
-      </c>
-      <c r="D5">
-        <v>202</v>
-      </c>
-      <c r="E5">
-        <v>5.24</v>
-      </c>
-      <c r="F5">
-        <v>894.8599999999999</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>1058.48</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>163.62000000000012</v>
-      </c>
-      <c r="I5">
-        <v>-0.02</v>
-      </c>
-      <c r="J5">
-        <v>-4.4000000000000003E-3</v>
-      </c>
-      <c r="K5">
-        <v>35741651</v>
-      </c>
-      <c r="L5">
-        <v>2761519425</v>
-      </c>
-      <c r="M5">
-        <v>124268374.09999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6">
-        <v>12.11</v>
-      </c>
-      <c r="D6">
-        <v>120</v>
-      </c>
-      <c r="E6">
-        <v>12.33</v>
-      </c>
-      <c r="F6">
-        <v>1482</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>1479.6</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>-2.4000000000000909</v>
-      </c>
-      <c r="I6">
-        <v>-0.06</v>
-      </c>
-      <c r="J6">
-        <v>-4.8999999999999998E-3</v>
-      </c>
-      <c r="K6">
-        <v>821145</v>
-      </c>
-      <c r="L6">
-        <v>8623425</v>
-      </c>
-      <c r="M6">
-        <v>4540324.03</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7">
-        <v>6.86</v>
-      </c>
-      <c r="D7">
-        <v>300</v>
-      </c>
-      <c r="E7">
-        <v>7.52</v>
-      </c>
-      <c r="F7">
-        <v>1701</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>2256</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
-        <v>555</v>
-      </c>
-      <c r="I7">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="J7">
-        <v>9.06E-2</v>
-      </c>
-      <c r="K7">
-        <v>54403778</v>
-      </c>
-      <c r="L7">
-        <v>1381554339</v>
-      </c>
-      <c r="M7">
-        <v>22442965.539999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8">
-        <v>26.99</v>
-      </c>
-      <c r="D8">
-        <v>50</v>
-      </c>
-      <c r="E8">
-        <v>26.98</v>
-      </c>
-      <c r="F8">
-        <v>1351</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>1349</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="I8">
-        <v>-0.54</v>
-      </c>
-      <c r="J8">
-        <v>-1.9599999999999999E-2</v>
-      </c>
-      <c r="K8">
-        <v>798509</v>
-      </c>
-      <c r="L8">
-        <v>74252857</v>
-      </c>
-      <c r="M8">
-        <v>8016338.4100000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9">
-        <v>321.20999999999998</v>
-      </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-      <c r="E9">
-        <v>323.69</v>
-      </c>
-      <c r="F9">
-        <v>31492</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>32369</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>877</v>
-      </c>
-      <c r="I9">
-        <v>0.5</v>
-      </c>
-      <c r="J9">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="K9">
-        <v>728302</v>
-      </c>
-      <c r="L9">
-        <v>268313234</v>
-      </c>
-      <c r="M9">
-        <v>172369787.78999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10">
-        <v>160</v>
-      </c>
-      <c r="D10">
-        <v>190</v>
-      </c>
-      <c r="E10">
-        <v>155.72999999999999</v>
-      </c>
-      <c r="F10">
-        <v>30620.399999999998</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>29588.699999999997</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>-1031.7000000000007</v>
-      </c>
-      <c r="I10">
-        <v>-0.63</v>
-      </c>
-      <c r="J10">
-        <v>-3.8999999999999998E-3</v>
-      </c>
-      <c r="K10">
-        <v>6900</v>
-      </c>
-      <c r="L10">
-        <v>20070662</v>
-      </c>
-      <c r="M10">
-        <v>16056529.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11">
-        <v>117.3</v>
-      </c>
-      <c r="D11">
-        <v>100</v>
-      </c>
-      <c r="E11">
-        <v>126.26</v>
-      </c>
-      <c r="F11">
-        <v>11385</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>12626</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
-        <v>1241</v>
-      </c>
-      <c r="I11">
-        <v>2.16</v>
-      </c>
-      <c r="J11">
-        <v>1.8800000000000001E-2</v>
-      </c>
-      <c r="K11">
-        <v>9265930</v>
-      </c>
-      <c r="L11">
-        <v>667914508</v>
-      </c>
-      <c r="M11">
-        <v>319169493.38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F13">
-        <f>SUM(F2:F11)</f>
-        <v>99998.87999999999</v>
-      </c>
-      <c r="G13">
+      <c r="G12">
         <f>SUM(G2:G11)</f>
         <v>101962.36</v>
+      </c>
+      <c r="H12">
+        <f>G12-F12</f>
+        <v>1963.4800000000105</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F15" t="s">
         <v>46</v>
       </c>
-      <c r="G15">
-        <f>G13-F13</f>
-        <v>1963.4800000000105</v>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>123</v>
+      </c>
+      <c r="D24">
+        <v>70</v>
+      </c>
+      <c r="E24">
+        <v>126.75</v>
+      </c>
+      <c r="F24">
+        <f>E24*D24</f>
+        <v>8872.5</v>
+      </c>
+      <c r="G24">
+        <f>PRODUCT(D24,E24)</f>
+        <v>8872.5</v>
+      </c>
+      <c r="H24">
+        <f>G24-F24</f>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0.5</v>
+      </c>
+      <c r="J24">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="K24">
+        <v>7101491</v>
+      </c>
+      <c r="L24">
+        <v>645139260</v>
+      </c>
+      <c r="M24">
+        <v>529014193.19999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>24.4</v>
+      </c>
+      <c r="D25">
+        <v>86</v>
+      </c>
+      <c r="E25">
+        <v>26.07</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25:F33" si="2">E25*D25</f>
+        <v>2242.02</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25:G33" si="3">PRODUCT(D25,E25)</f>
+        <v>2242.02</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25:H33" si="4">G25-F25</f>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>1.7</v>
+      </c>
+      <c r="J25">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="K25">
+        <v>30108719</v>
+      </c>
+      <c r="L25">
+        <v>428006078</v>
+      </c>
+      <c r="M25">
+        <v>20886696.579999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26">
+        <v>49.99</v>
+      </c>
+      <c r="D26">
+        <v>70</v>
+      </c>
+      <c r="E26">
+        <v>49.88</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>3491.6000000000004</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>3491.6000000000004</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>-0.88</v>
+      </c>
+      <c r="J26">
+        <v>-7.1999999999999998E-3</v>
+      </c>
+      <c r="K26">
+        <v>3348106</v>
+      </c>
+      <c r="L26">
+        <v>972865790</v>
+      </c>
+      <c r="M26">
+        <v>156631393.80000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>4.5</v>
+      </c>
+      <c r="D27">
+        <v>600</v>
+      </c>
+      <c r="E27">
+        <v>5.24</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>3144</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>3144</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>-0.02</v>
+      </c>
+      <c r="J27">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="K27">
+        <v>35741651</v>
+      </c>
+      <c r="L27">
+        <v>2761519425</v>
+      </c>
+      <c r="M27">
+        <v>124268374.09999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28">
+        <v>12.11</v>
+      </c>
+      <c r="D28">
+        <v>51</v>
+      </c>
+      <c r="E28">
+        <v>12.33</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>628.83000000000004</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>628.83000000000004</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>-0.06</v>
+      </c>
+      <c r="J28">
+        <v>-4.8999999999999998E-3</v>
+      </c>
+      <c r="K28">
+        <v>821145</v>
+      </c>
+      <c r="L28">
+        <v>8623425</v>
+      </c>
+      <c r="M28">
+        <v>4540324.03</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>6.86</v>
+      </c>
+      <c r="D29">
+        <v>1200</v>
+      </c>
+      <c r="E29">
+        <v>7.52</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>9024</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>9024</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J29">
+        <v>9.06E-2</v>
+      </c>
+      <c r="K29">
+        <v>54403778</v>
+      </c>
+      <c r="L29">
+        <v>1381554339</v>
+      </c>
+      <c r="M29">
+        <v>22442965.539999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>26.99</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <v>26.98</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>539.6</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>539.6</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>-0.54</v>
+      </c>
+      <c r="J30">
+        <v>-1.9599999999999999E-2</v>
+      </c>
+      <c r="K30">
+        <v>798509</v>
+      </c>
+      <c r="L30">
+        <v>74252857</v>
+      </c>
+      <c r="M30">
+        <v>8016338.4100000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>321.20999999999998</v>
+      </c>
+      <c r="D31">
+        <v>131</v>
+      </c>
+      <c r="E31">
+        <v>323.69</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>42403.39</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>42403.39</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0.5</v>
+      </c>
+      <c r="J31">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="K31">
+        <v>728302</v>
+      </c>
+      <c r="L31">
+        <v>268313234</v>
+      </c>
+      <c r="M31">
+        <v>172369787.78999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32">
+        <v>5.65</v>
+      </c>
+      <c r="D32">
+        <v>191</v>
+      </c>
+      <c r="E32">
+        <v>5.84</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>1115.44</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>1115.44</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>-0.63</v>
+      </c>
+      <c r="J32">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="K32">
+        <v>6900</v>
+      </c>
+      <c r="L32">
+        <v>20070662</v>
+      </c>
+      <c r="M32">
+        <v>16056529.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33">
+        <v>117.3</v>
+      </c>
+      <c r="D33">
+        <v>226</v>
+      </c>
+      <c r="E33">
+        <v>126.26</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>28534.760000000002</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>28534.760000000002</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>2.16</v>
+      </c>
+      <c r="J33">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="K33">
+        <v>9265930</v>
+      </c>
+      <c r="L33">
+        <v>667914508</v>
+      </c>
+      <c r="M33">
+        <v>319169493.38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F34">
+        <f>SUM(F24:F33)</f>
+        <v>99996.140000000014</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H11">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4258,17 +7331,24 @@
     <hyperlink ref="A7" r:id="rId3" display="https://dps.psx.com.pk/company/BOP" xr:uid="{05725C71-9148-4CC6-83DB-8FC8E917A483}"/>
     <hyperlink ref="A9" r:id="rId4" display="https://dps.psx.com.pk/company/ENGRO" xr:uid="{95A91137-6872-4C7C-BD5D-AD626E354D0B}"/>
     <hyperlink ref="A11" r:id="rId5" display="https://dps.psx.com.pk/company/PPL" xr:uid="{08D1EFB1-D312-438E-96F7-1BE02D37523A}"/>
+    <hyperlink ref="A25" r:id="rId6" display="https://dps.psx.com.pk/company/PAEL" xr:uid="{6843712B-308F-4F17-A9AF-1BB4ABBBD21E}"/>
+    <hyperlink ref="A27" r:id="rId7" display="https://dps.psx.com.pk/company/KEL" xr:uid="{66851508-9CEB-49BB-BCEF-45E2309C3EDF}"/>
+    <hyperlink ref="A29" r:id="rId8" display="https://dps.psx.com.pk/company/BOP" xr:uid="{898C6469-DDA0-4BC4-863D-618F47AD7421}"/>
+    <hyperlink ref="A31" r:id="rId9" display="https://dps.psx.com.pk/company/ENGRO" xr:uid="{05938D51-BCC2-49C5-92B1-1A120718A118}"/>
+    <hyperlink ref="A33" r:id="rId10" display="https://dps.psx.com.pk/company/PPL" xr:uid="{490CFF69-2361-4C62-B0E1-B08134FC196D}"/>
+    <hyperlink ref="B26" r:id="rId11" display="https://dps.psx.com.pk/company/BAFL" xr:uid="{600A5822-3E5E-4DA0-A78D-162C08416923}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90CF9BA-7277-4E4A-ADA2-5C76279CB393}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4340,36 +7420,36 @@
         <v>126.75</v>
       </c>
       <c r="D2">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E2">
-        <v>124.11</v>
+        <v>127.75</v>
       </c>
       <c r="F2">
-        <v>11284.199999999999</v>
+        <v>8872.5</v>
       </c>
       <c r="G2">
         <f>PRODUCT(D2,E2)</f>
-        <v>11169.9</v>
+        <v>8942.5</v>
       </c>
       <c r="H2">
         <f>G2-F2</f>
-        <v>-114.29999999999927</v>
+        <v>70</v>
       </c>
       <c r="I2">
-        <v>-2.64</v>
+        <v>0.5</v>
       </c>
       <c r="J2">
-        <v>-2.08</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="K2">
-        <v>3438244</v>
+        <v>7101491</v>
       </c>
       <c r="L2">
         <v>645139260</v>
       </c>
       <c r="M2">
-        <v>533788223.72000003</v>
+        <v>529014193.19999999</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -4383,79 +7463,79 @@
         <v>26.07</v>
       </c>
       <c r="D3">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="E3">
-        <v>25.1</v>
+        <v>26.36</v>
       </c>
       <c r="F3">
-        <v>1151.82</v>
+        <v>2242.02</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G11" si="0">PRODUCT(D3,E3)</f>
-        <v>1355.4</v>
+        <v>2266.96</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H11" si="1">G3-F3</f>
-        <v>203.58000000000015</v>
+        <v>24.940000000000055</v>
       </c>
       <c r="I3">
-        <v>-0.97</v>
+        <v>1.7</v>
       </c>
       <c r="J3">
-        <v>-3.7199999999999997E-2</v>
+        <v>7.4899999999999994E-2</v>
       </c>
       <c r="K3">
-        <v>27592415</v>
+        <v>30108719</v>
       </c>
       <c r="L3">
         <v>428006078</v>
       </c>
       <c r="M3">
-        <v>21485905.09</v>
+        <v>20886696.579999998</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C4">
-        <v>120.29</v>
+        <v>49.88</v>
       </c>
       <c r="D4">
         <v>70</v>
       </c>
       <c r="E4">
-        <v>120.97</v>
+        <v>52.08</v>
       </c>
       <c r="F4">
-        <v>8636.6</v>
+        <v>3491.6000000000004</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>8467.9</v>
+        <v>3645.6</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>-168.70000000000073</v>
+        <v>153.99999999999955</v>
       </c>
       <c r="I4">
-        <v>0.68</v>
+        <v>-0.88</v>
       </c>
       <c r="J4">
-        <v>0.56999999999999995</v>
+        <v>-7.1999999999999998E-3</v>
       </c>
       <c r="K4">
-        <v>2701522</v>
+        <v>3348106</v>
       </c>
       <c r="L4">
         <v>972865790</v>
       </c>
       <c r="M4">
-        <v>156916767.77000001</v>
+        <v>156631393.80000001</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -4469,36 +7549,36 @@
         <v>5.24</v>
       </c>
       <c r="D5">
-        <v>202</v>
+        <v>600</v>
       </c>
       <c r="E5">
-        <v>5.43</v>
+        <v>5.5</v>
       </c>
       <c r="F5">
-        <v>894.8599999999999</v>
+        <v>3144</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>1096.8599999999999</v>
+        <v>3300</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="I5">
-        <v>0.19</v>
+        <v>-0.02</v>
       </c>
       <c r="J5">
-        <v>3.6299999999999999E-2</v>
+        <v>-4.4000000000000003E-3</v>
       </c>
       <c r="K5">
-        <v>178135494</v>
+        <v>35741651</v>
       </c>
       <c r="L5">
         <v>2761519425</v>
       </c>
       <c r="M5">
-        <v>149950504.75</v>
+        <v>124268374.09999999</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -4512,36 +7592,36 @@
         <v>12.33</v>
       </c>
       <c r="D6">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="E6">
-        <v>12.15</v>
+        <v>12.33</v>
       </c>
       <c r="F6">
-        <v>1482</v>
+        <v>628.83000000000004</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>1458</v>
+        <v>628.83000000000004</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.18</v>
+        <v>-0.06</v>
       </c>
       <c r="J6">
-        <v>-1.46E-2</v>
+        <v>-4.8999999999999998E-3</v>
       </c>
       <c r="K6">
-        <v>380748</v>
+        <v>821145</v>
       </c>
       <c r="L6">
         <v>8623425</v>
       </c>
       <c r="M6">
-        <v>4555320.97</v>
+        <v>4540324.03</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -4555,36 +7635,36 @@
         <v>7.52</v>
       </c>
       <c r="D7">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="E7">
-        <v>7.62</v>
+        <v>7.99</v>
       </c>
       <c r="F7">
-        <v>1701</v>
+        <v>9024</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>2286</v>
+        <v>9588</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>585</v>
+        <v>564</v>
       </c>
       <c r="I7">
-        <v>0.1</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J7">
-        <v>1.33</v>
+        <v>9.06E-2</v>
       </c>
       <c r="K7">
-        <v>60156478</v>
+        <v>54403778</v>
       </c>
       <c r="L7">
         <v>1381554339</v>
       </c>
       <c r="M7">
-        <v>24929358.23</v>
+        <v>22442965.539999999</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -4598,36 +7678,36 @@
         <v>26.98</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>26.55</v>
+        <v>26.9</v>
       </c>
       <c r="F8">
-        <v>1351</v>
+        <v>539.6</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>1327.5</v>
+        <v>538</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>-23.5</v>
+        <v>-1.6000000000000227</v>
       </c>
       <c r="I8">
-        <v>-0.43</v>
+        <v>-0.54</v>
       </c>
       <c r="J8">
-        <v>-1.5900000000000001E-2</v>
+        <v>-1.9599999999999999E-2</v>
       </c>
       <c r="K8">
-        <v>136907</v>
+        <v>798509</v>
       </c>
       <c r="L8">
         <v>74252857</v>
       </c>
       <c r="M8">
-        <v>7885653.3899999997</v>
+        <v>8016338.4100000001</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -4641,79 +7721,79 @@
         <v>323.69</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E9">
-        <v>319.99</v>
+        <v>322.2</v>
       </c>
       <c r="F9">
-        <v>31492</v>
+        <v>42403.39</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>31999</v>
+        <v>42208.2</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>507</v>
+        <v>-195.19000000000233</v>
       </c>
       <c r="I9">
-        <v>-3.7</v>
+        <v>0.5</v>
       </c>
       <c r="J9">
-        <v>-1.14E-2</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="K9">
-        <v>351413</v>
+        <v>728302</v>
       </c>
       <c r="L9">
         <v>268313234</v>
       </c>
       <c r="M9">
-        <v>171715103.5</v>
+        <v>172369787.78999999</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C10">
-        <v>155.72999999999999</v>
+        <v>5.84</v>
       </c>
       <c r="D10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E10">
-        <v>149.80000000000001</v>
+        <v>6.1</v>
       </c>
       <c r="F10">
-        <v>30620.399999999998</v>
+        <v>1115.44</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>28462.000000000004</v>
+        <v>1165.0999999999999</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>-2158.3999999999942</v>
+        <v>49.659999999999854</v>
       </c>
       <c r="I10">
-        <v>-5.93</v>
+        <v>-0.63</v>
       </c>
       <c r="J10">
-        <v>-3.8100000000000002E-2</v>
+        <v>-3.8999999999999998E-3</v>
       </c>
       <c r="K10">
-        <v>14600</v>
+        <v>6900</v>
       </c>
       <c r="L10">
         <v>20070662</v>
       </c>
       <c r="M10">
-        <v>15032925.84</v>
+        <v>16056529.6</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -4727,60 +7807,67 @@
         <v>126.26</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E11">
-        <v>122.44</v>
+        <v>126</v>
       </c>
       <c r="F11">
-        <v>11385</v>
+        <v>28534.760000000002</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>12244</v>
+        <v>28476</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>859</v>
+        <v>-58.760000000002037</v>
       </c>
       <c r="I11">
-        <v>-3.82</v>
+        <v>2.16</v>
       </c>
       <c r="J11">
-        <v>-3.0300000000000001E-2</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="K11">
-        <v>5953085</v>
+        <v>9265930</v>
       </c>
       <c r="L11">
         <v>667914508</v>
       </c>
       <c r="M11">
-        <v>333155266.57999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F13">
+        <v>319169493.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F12">
         <f>SUM(F2:F11)</f>
-        <v>99998.87999999999</v>
-      </c>
-      <c r="G13">
+        <v>99996.140000000014</v>
+      </c>
+      <c r="G12">
         <f>SUM(G2:G11)</f>
-        <v>99866.559999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15">
-        <f>G13-F13</f>
-        <v>-132.31999999999243</v>
+        <v>100759.19</v>
+      </c>
+      <c r="H12">
+        <f>SUM(H2:H11)</f>
+        <v>763.04999999999507</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:H11 H13">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="H2:H11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4792,23 +7879,24 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://dps.psx.com.pk/company/PAEL" xr:uid="{861A735E-FD9E-44B0-B113-CD7137963151}"/>
-    <hyperlink ref="A5" r:id="rId2" display="https://dps.psx.com.pk/company/KEL" xr:uid="{FABD9C45-38CF-4425-8117-5CA6FC79AB35}"/>
-    <hyperlink ref="A7" r:id="rId3" display="https://dps.psx.com.pk/company/BOP" xr:uid="{3900A29A-BC26-488C-A6D5-A5DA651C5168}"/>
-    <hyperlink ref="A9" r:id="rId4" display="https://dps.psx.com.pk/company/ENGRO" xr:uid="{1684702F-5B6B-4816-ACCC-35C664940EDE}"/>
-    <hyperlink ref="A11" r:id="rId5" display="https://dps.psx.com.pk/company/PPL" xr:uid="{C7745484-CB22-44D7-AB9A-B765DB5719B3}"/>
+    <hyperlink ref="A3" r:id="rId1" display="https://dps.psx.com.pk/company/PAEL" xr:uid="{532649BF-78DA-4A32-B479-F804F558FDB8}"/>
+    <hyperlink ref="A5" r:id="rId2" display="https://dps.psx.com.pk/company/KEL" xr:uid="{263B95D5-B90E-4142-8560-EDCD488A0A0C}"/>
+    <hyperlink ref="A7" r:id="rId3" display="https://dps.psx.com.pk/company/BOP" xr:uid="{E346A1DE-55D3-4C3C-8405-8712B3090012}"/>
+    <hyperlink ref="A9" r:id="rId4" display="https://dps.psx.com.pk/company/ENGRO" xr:uid="{76A3E944-F36E-47BE-90EE-6A5ECD5622CA}"/>
+    <hyperlink ref="A11" r:id="rId5" display="https://dps.psx.com.pk/company/PPL" xr:uid="{00179634-F0B5-4688-9726-8F16738EB41B}"/>
+    <hyperlink ref="B4" r:id="rId6" display="https://dps.psx.com.pk/company/BAFL" xr:uid="{565C8140-F838-4720-8374-02EFFB5E6506}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBEE86FE-9DD5-4D92-9660-E013AF8B13F5}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="A1:XFD1048576"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4877,39 +7965,39 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>124.11</v>
+        <v>127.75</v>
       </c>
       <c r="D2">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E2">
-        <v>124.09</v>
+        <v>124</v>
       </c>
       <c r="F2">
-        <v>11284.199999999999</v>
+        <v>8872.5</v>
       </c>
       <c r="G2">
         <f>PRODUCT(D2,E2)</f>
-        <v>11168.1</v>
+        <v>8680</v>
       </c>
       <c r="H2">
         <f>G2-F2</f>
-        <v>-116.09999999999854</v>
+        <v>-192.5</v>
       </c>
       <c r="I2">
-        <v>-6.57</v>
+        <v>0.5</v>
       </c>
       <c r="J2">
-        <v>-5.2900000000000003E-2</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="K2">
-        <v>11777994</v>
+        <v>7101491</v>
       </c>
       <c r="L2">
         <v>645139260</v>
       </c>
       <c r="M2">
-        <v>533788223.72000003</v>
+        <v>529014193.19999999</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -4920,82 +8008,82 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>25.1</v>
+        <v>26.36</v>
       </c>
       <c r="D3">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="E3">
-        <v>24.28</v>
+        <v>24.25</v>
       </c>
       <c r="F3">
-        <v>1151.82</v>
+        <v>2242.02</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G11" si="0">PRODUCT(D3,E3)</f>
-        <v>1311.1200000000001</v>
+        <v>2085.5</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H11" si="1">G3-F3</f>
-        <v>159.30000000000018</v>
+        <v>-156.51999999999998</v>
       </c>
       <c r="I3">
-        <v>-1.77</v>
+        <v>1.7</v>
       </c>
       <c r="J3">
-        <v>-7.2900000000000006E-2</v>
+        <v>7.4899999999999994E-2</v>
       </c>
       <c r="K3">
-        <v>32171668</v>
+        <v>30108719</v>
       </c>
       <c r="L3">
         <v>428006078</v>
       </c>
       <c r="M3">
-        <v>21485905.09</v>
+        <v>20886696.579999998</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C4">
-        <v>120.97</v>
+        <v>52.08</v>
       </c>
       <c r="D4">
         <v>70</v>
       </c>
       <c r="E4">
-        <v>119.83</v>
+        <v>49.9</v>
       </c>
       <c r="F4">
-        <v>8636.6</v>
+        <v>3491.6000000000004</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>8388.1</v>
+        <v>3493</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>-248.5</v>
+        <v>1.3999999999996362</v>
       </c>
       <c r="I4">
-        <v>-2.65</v>
-      </c>
-      <c r="J4" t="s">
-        <v>47</v>
+        <v>-0.88</v>
+      </c>
+      <c r="J4">
+        <v>-7.1999999999999998E-3</v>
       </c>
       <c r="K4">
-        <v>5349279</v>
+        <v>3348106</v>
       </c>
       <c r="L4">
         <v>972865790</v>
       </c>
       <c r="M4">
-        <v>156916767.77000001</v>
+        <v>156631393.80000001</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -5006,39 +8094,39 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>5.43</v>
+        <v>5.5</v>
       </c>
       <c r="D5">
-        <v>202</v>
+        <v>600</v>
       </c>
       <c r="E5">
-        <v>5.83</v>
+        <v>5.8</v>
       </c>
       <c r="F5">
-        <v>894.8599999999999</v>
+        <v>3144</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>1177.6600000000001</v>
+        <v>3480</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>282.80000000000018</v>
+        <v>336</v>
       </c>
       <c r="I5">
-        <v>-0.53</v>
+        <v>-0.02</v>
       </c>
       <c r="J5">
-        <v>-9.0899999999999995E-2</v>
+        <v>-4.4000000000000003E-3</v>
       </c>
       <c r="K5">
-        <v>341067706</v>
+        <v>35741651</v>
       </c>
       <c r="L5">
         <v>2761519425</v>
       </c>
       <c r="M5">
-        <v>149950504.75</v>
+        <v>124268374.09999999</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -5049,39 +8137,39 @@
         <v>40</v>
       </c>
       <c r="C6">
-        <v>12.15</v>
+        <v>12.33</v>
       </c>
       <c r="D6">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="E6">
-        <v>11.99</v>
+        <v>11.84</v>
       </c>
       <c r="F6">
-        <v>1482</v>
+        <v>628.83000000000004</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>1438.8</v>
+        <v>603.84</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>-43.200000000000045</v>
-      </c>
-      <c r="I6" t="s">
-        <v>48</v>
+        <v>-24.990000000000009</v>
+      </c>
+      <c r="I6">
+        <v>-0.06</v>
       </c>
       <c r="J6">
-        <v>-7.17E-2</v>
+        <v>-4.8999999999999998E-3</v>
       </c>
       <c r="K6">
-        <v>2859308</v>
+        <v>821145</v>
       </c>
       <c r="L6">
         <v>8623425</v>
       </c>
       <c r="M6">
-        <v>4555320.97</v>
+        <v>4540324.03</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -5092,39 +8180,39 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <v>7.62</v>
+        <v>7.99</v>
       </c>
       <c r="D7">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="E7">
-        <v>7.57</v>
+        <v>7.55</v>
       </c>
       <c r="F7">
-        <v>1701</v>
+        <v>9024</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>2271</v>
+        <v>9060</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>570</v>
+        <v>36</v>
       </c>
       <c r="I7">
-        <v>-0.85</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J7">
-        <v>-0.1123</v>
+        <v>9.06E-2</v>
       </c>
       <c r="K7">
-        <v>118013188</v>
+        <v>54403778</v>
       </c>
       <c r="L7">
         <v>1381554339</v>
       </c>
       <c r="M7">
-        <v>24929358.23</v>
+        <v>22442965.539999999</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -5135,39 +8223,39 @@
         <v>28</v>
       </c>
       <c r="C8">
-        <v>26.55</v>
+        <v>26.9</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>26.28</v>
+        <v>26.22</v>
       </c>
       <c r="F8">
-        <v>1351</v>
+        <v>539.6</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>1314</v>
+        <v>524.4</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>-37</v>
+        <v>-15.200000000000045</v>
       </c>
       <c r="I8">
-        <v>-1.72</v>
-      </c>
-      <c r="J8" t="s">
-        <v>49</v>
+        <v>-0.54</v>
+      </c>
+      <c r="J8">
+        <v>-1.9599999999999999E-2</v>
       </c>
       <c r="K8">
-        <v>596511</v>
+        <v>798509</v>
       </c>
       <c r="L8">
         <v>74252857</v>
       </c>
       <c r="M8">
-        <v>7885653.3899999997</v>
+        <v>8016338.4100000001</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -5178,82 +8266,82 @@
         <v>30</v>
       </c>
       <c r="C9">
-        <v>319.99</v>
+        <v>322.2</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E9">
-        <v>316.83</v>
+        <v>315.51</v>
       </c>
       <c r="F9">
-        <v>31492</v>
+        <v>42403.39</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>31683</v>
+        <v>41331.81</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>191</v>
+        <v>-1071.5800000000017</v>
       </c>
       <c r="I9">
-        <v>-9.69</v>
+        <v>0.5</v>
       </c>
       <c r="J9">
-        <v>-3.0599999999999999E-2</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="K9">
-        <v>1023747</v>
+        <v>728302</v>
       </c>
       <c r="L9">
         <v>268313234</v>
       </c>
       <c r="M9">
-        <v>171715103.5</v>
+        <v>172369787.78999999</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C10">
-        <v>149.80000000000001</v>
+        <v>6.1</v>
       </c>
       <c r="D10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E10">
-        <v>148.36000000000001</v>
+        <v>6.1</v>
       </c>
       <c r="F10">
-        <v>30620.399999999998</v>
+        <v>1115.44</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>28188.400000000001</v>
+        <v>1165.0999999999999</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>-2431.9999999999964</v>
+        <v>49.659999999999854</v>
       </c>
       <c r="I10">
-        <v>-2.89</v>
-      </c>
-      <c r="J10" t="s">
-        <v>50</v>
+        <v>-0.63</v>
+      </c>
+      <c r="J10">
+        <v>-3.8999999999999998E-3</v>
       </c>
       <c r="K10">
-        <v>1900</v>
+        <v>6900</v>
       </c>
       <c r="L10">
         <v>20070662</v>
       </c>
       <c r="M10">
-        <v>15032925.84</v>
+        <v>16056529.6</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -5264,58 +8352,53 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <v>122.44</v>
+        <v>126</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E11">
-        <v>123.07</v>
+        <v>121.8</v>
       </c>
       <c r="F11">
-        <v>11385</v>
+        <v>28534.760000000002</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>12307</v>
+        <v>27526.799999999999</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>922</v>
-      </c>
-      <c r="I11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" t="s">
-        <v>52</v>
+        <v>-1007.9600000000028</v>
+      </c>
+      <c r="I11">
+        <v>2.16</v>
+      </c>
+      <c r="J11">
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="K11">
-        <v>24378331</v>
+        <v>9265930</v>
       </c>
       <c r="L11">
         <v>667914508</v>
       </c>
       <c r="M11">
-        <v>333155266.57999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F13">
+        <v>319169493.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F12">
         <f>SUM(F2:F11)</f>
-        <v>99998.87999999999</v>
-      </c>
-      <c r="G13">
+        <v>99996.140000000014</v>
+      </c>
+      <c r="G12">
         <f>SUM(G2:G11)</f>
-        <v>99247.18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15">
-        <f>G13-F13</f>
-        <v>-751.69999999999709</v>
+        <v>97950.450000000012</v>
+      </c>
+      <c r="H12">
+        <f>SUM(H2:H11)</f>
+        <v>-2045.6900000000051</v>
       </c>
     </row>
   </sheetData>
@@ -5332,23 +8415,24 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://dps.psx.com.pk/company/PAEL" xr:uid="{BA64D6F5-1957-4397-A9FF-B15EE464924E}"/>
-    <hyperlink ref="A5" r:id="rId2" display="https://dps.psx.com.pk/company/KEL" xr:uid="{DC08261C-3051-4E58-94D6-2E797DCAD79E}"/>
-    <hyperlink ref="A7" r:id="rId3" display="https://dps.psx.com.pk/company/BOP" xr:uid="{801F73DA-7B35-40C2-8684-18C86F165275}"/>
-    <hyperlink ref="A9" r:id="rId4" display="https://dps.psx.com.pk/company/ENGRO" xr:uid="{C35899EE-534D-4FDC-AEC9-67F6E1BEAF32}"/>
-    <hyperlink ref="A11" r:id="rId5" display="https://dps.psx.com.pk/company/PPL" xr:uid="{AA309FDD-51D5-4259-90B7-340B33B5A9A8}"/>
+    <hyperlink ref="A3" r:id="rId1" display="https://dps.psx.com.pk/company/PAEL" xr:uid="{66552A30-D24A-42C8-AEAC-89E0A0D2AC8A}"/>
+    <hyperlink ref="A5" r:id="rId2" display="https://dps.psx.com.pk/company/KEL" xr:uid="{9029D8F8-8ABB-4C92-B066-B5518FA2FC45}"/>
+    <hyperlink ref="A7" r:id="rId3" display="https://dps.psx.com.pk/company/BOP" xr:uid="{1006EA88-8A4E-4838-A3CA-73D90FEFD8F6}"/>
+    <hyperlink ref="A9" r:id="rId4" display="https://dps.psx.com.pk/company/ENGRO" xr:uid="{68C43B02-8A59-47D9-B564-1100197706F6}"/>
+    <hyperlink ref="A11" r:id="rId5" display="https://dps.psx.com.pk/company/PPL" xr:uid="{39AD3349-0901-4DB9-B461-928C7FEE7804}"/>
+    <hyperlink ref="B4" r:id="rId6" display="https://dps.psx.com.pk/company/BAFL" xr:uid="{5C770FF2-C466-4961-A763-3A2E7C6F9414}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96A13EA-3B32-49A8-899F-A22744C9A796}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="A1:XFD1048576"/>
+      <selection activeCell="F9" sqref="A1:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5417,39 +8501,39 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>124.09</v>
+        <v>124</v>
       </c>
       <c r="D2">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E2">
-        <v>117.52</v>
+        <v>118.05</v>
       </c>
       <c r="F2">
-        <v>11284.199999999999</v>
+        <v>8872.5</v>
       </c>
       <c r="G2">
         <f>PRODUCT(D2,E2)</f>
-        <v>10576.8</v>
+        <v>8263.5</v>
       </c>
       <c r="H2">
         <f>G2-F2</f>
-        <v>-707.39999999999964</v>
+        <v>-609</v>
       </c>
       <c r="I2">
-        <v>-2.8</v>
+        <v>0.5</v>
       </c>
       <c r="J2">
-        <v>-2.3800000000000002E-2</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="K2">
-        <v>13742412</v>
+        <v>7101491</v>
       </c>
       <c r="L2">
         <v>645139260</v>
       </c>
       <c r="M2">
-        <v>533788223.72000003</v>
+        <v>529014193.19999999</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -5460,82 +8544,82 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>24.28</v>
+        <v>24.25</v>
       </c>
       <c r="D3">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="E3">
-        <v>22.51</v>
+        <v>22.98</v>
       </c>
       <c r="F3">
-        <v>1151.82</v>
+        <v>2242.02</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G11" si="0">PRODUCT(D3,E3)</f>
-        <v>1215.5400000000002</v>
+        <v>1976.28</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H11" si="1">G3-F3</f>
-        <v>63.720000000000255</v>
+        <v>-265.74</v>
       </c>
       <c r="I3">
-        <v>22.51</v>
+        <v>1.7</v>
       </c>
       <c r="J3">
-        <v>-4.6600000000000003E-2</v>
+        <v>7.4899999999999994E-2</v>
       </c>
       <c r="K3">
-        <v>25396338</v>
+        <v>30108719</v>
       </c>
       <c r="L3">
         <v>428006078</v>
       </c>
       <c r="M3">
-        <v>21485905.09</v>
+        <v>20886696.579999998</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C4">
-        <v>119.83</v>
+        <v>49.9</v>
       </c>
       <c r="D4">
         <v>70</v>
       </c>
       <c r="E4">
-        <v>117.18</v>
+        <v>48.52</v>
       </c>
       <c r="F4">
-        <v>8636.6</v>
+        <v>3491.6000000000004</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>8202.6</v>
+        <v>3396.4</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>-434</v>
-      </c>
-      <c r="I4" t="s">
-        <v>53</v>
+        <v>-95.200000000000273</v>
+      </c>
+      <c r="I4">
+        <v>-0.88</v>
       </c>
       <c r="J4">
-        <v>1.3100000000000001E-2</v>
+        <v>-7.1999999999999998E-3</v>
       </c>
       <c r="K4">
-        <v>7129829</v>
+        <v>3348106</v>
       </c>
       <c r="L4">
         <v>972865790</v>
       </c>
       <c r="M4">
-        <v>156916767.77000001</v>
+        <v>156631393.80000001</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -5546,39 +8630,39 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>5.83</v>
+        <v>5.8</v>
       </c>
       <c r="D5">
-        <v>202</v>
+        <v>600</v>
       </c>
       <c r="E5">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="F5">
-        <v>894.8599999999999</v>
+        <v>3144</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>1070.5999999999999</v>
+        <v>3300</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>175.74</v>
+        <v>156</v>
       </c>
       <c r="I5">
-        <v>0.47</v>
+        <v>-0.02</v>
       </c>
       <c r="J5">
-        <v>8.8700000000000001E-2</v>
+        <v>-4.4000000000000003E-3</v>
       </c>
       <c r="K5">
-        <v>280811788</v>
+        <v>35741651</v>
       </c>
       <c r="L5">
         <v>2761519425</v>
       </c>
       <c r="M5">
-        <v>149950504.75</v>
+        <v>124268374.09999999</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -5589,39 +8673,39 @@
         <v>40</v>
       </c>
       <c r="C6">
-        <v>11.99</v>
+        <v>11.84</v>
       </c>
       <c r="D6">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="E6">
-        <v>11.13</v>
+        <v>10.8</v>
       </c>
       <c r="F6">
-        <v>1482</v>
+        <v>628.83000000000004</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>1335.6000000000001</v>
+        <v>550.80000000000007</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>-146.39999999999986</v>
-      </c>
-      <c r="I6" t="s">
-        <v>54</v>
+        <v>-78.029999999999973</v>
+      </c>
+      <c r="I6">
+        <v>-0.06</v>
       </c>
       <c r="J6">
-        <v>3.6799999999999999E-2</v>
+        <v>-4.8999999999999998E-3</v>
       </c>
       <c r="K6">
-        <v>3034436</v>
+        <v>821145</v>
       </c>
       <c r="L6">
         <v>8623425</v>
       </c>
       <c r="M6">
-        <v>4555320.97</v>
+        <v>4540324.03</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -5632,39 +8716,39 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <v>7.57</v>
+        <v>7.55</v>
       </c>
       <c r="D7">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="E7">
-        <v>6.72</v>
+        <v>6.55</v>
       </c>
       <c r="F7">
-        <v>1701</v>
+        <v>9024</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>2016</v>
+        <v>7860</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>315</v>
-      </c>
-      <c r="I7" t="s">
-        <v>55</v>
+        <v>-1164</v>
+      </c>
+      <c r="I7">
+        <v>0.56999999999999995</v>
       </c>
       <c r="J7">
-        <v>-2.6800000000000001E-2</v>
+        <v>9.06E-2</v>
       </c>
       <c r="K7">
-        <v>53704668</v>
+        <v>54403778</v>
       </c>
       <c r="L7">
         <v>1381554339</v>
       </c>
       <c r="M7">
-        <v>24929358.23</v>
+        <v>22442965.539999999</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -5675,39 +8759,39 @@
         <v>28</v>
       </c>
       <c r="C8">
-        <v>26.28</v>
+        <v>26.22</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>24.56</v>
+        <v>24.92</v>
       </c>
       <c r="F8">
-        <v>1351</v>
+        <v>539.6</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>1228</v>
+        <v>498.40000000000003</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>-123</v>
-      </c>
-      <c r="I8" t="s">
-        <v>56</v>
+        <v>-41.199999999999989</v>
+      </c>
+      <c r="I8">
+        <v>-0.54</v>
       </c>
       <c r="J8">
-        <v>-1.5900000000000001E-2</v>
+        <v>-1.9599999999999999E-2</v>
       </c>
       <c r="K8">
-        <v>302185</v>
+        <v>798509</v>
       </c>
       <c r="L8">
         <v>74252857</v>
       </c>
       <c r="M8">
-        <v>7885653.3899999997</v>
+        <v>8016338.4100000001</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -5718,82 +8802,82 @@
         <v>30</v>
       </c>
       <c r="C9">
-        <v>316.83</v>
+        <v>315.51</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E9">
-        <v>307.14</v>
+        <v>308.89</v>
       </c>
       <c r="F9">
-        <v>31492</v>
+        <v>42403.39</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>30714</v>
+        <v>40464.589999999997</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>-778</v>
-      </c>
-      <c r="I9" t="s">
-        <v>57</v>
+        <v>-1938.8000000000029</v>
+      </c>
+      <c r="I9">
+        <v>0.5</v>
       </c>
       <c r="J9">
-        <v>-2.2599999999999999E-2</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="K9">
-        <v>1789142</v>
+        <v>728302</v>
       </c>
       <c r="L9">
         <v>268313234</v>
       </c>
       <c r="M9">
-        <v>171715103.5</v>
+        <v>172369787.78999999</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C10">
-        <v>148.36000000000001</v>
+        <v>6.1</v>
       </c>
       <c r="D10">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E10">
-        <v>145.47</v>
+        <v>5.58</v>
       </c>
       <c r="F10">
-        <v>30620.399999999998</v>
+        <v>1115.44</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>27639.3</v>
+        <v>1065.78</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>-2981.0999999999985</v>
+        <v>-49.660000000000082</v>
       </c>
       <c r="I10">
-        <v>-10.82</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
+        <v>-0.63</v>
+      </c>
+      <c r="J10">
+        <v>-3.8999999999999998E-3</v>
       </c>
       <c r="K10">
-        <v>17000</v>
+        <v>6900</v>
       </c>
       <c r="L10">
         <v>20070662</v>
       </c>
       <c r="M10">
-        <v>15032925.84</v>
+        <v>16056529.6</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -5804,58 +8888,53 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <v>123.07</v>
+        <v>121.8</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E11">
-        <v>118.64</v>
+        <v>120.3</v>
       </c>
       <c r="F11">
-        <v>11385</v>
+        <v>28534.760000000002</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>11864</v>
+        <v>27187.8</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>479</v>
+        <v>-1346.9600000000028</v>
       </c>
       <c r="I11">
-        <v>1.73</v>
-      </c>
-      <c r="J11" t="s">
-        <v>59</v>
+        <v>2.16</v>
+      </c>
+      <c r="J11">
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="K11">
-        <v>24173128</v>
+        <v>9265930</v>
       </c>
       <c r="L11">
         <v>667914508</v>
       </c>
       <c r="M11">
-        <v>333155266.57999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F13">
+        <v>319169493.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F12">
         <f>SUM(F2:F11)</f>
-        <v>99998.87999999999</v>
-      </c>
-      <c r="G13">
+        <v>99996.140000000014</v>
+      </c>
+      <c r="G12">
         <f>SUM(G2:G11)</f>
-        <v>95862.44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15">
-        <f>G13-F13</f>
-        <v>-4136.4399999999878</v>
+        <v>94563.55</v>
+      </c>
+      <c r="H12">
+        <f>SUM(H2:H11)</f>
+        <v>-5432.5900000000056</v>
       </c>
     </row>
   </sheetData>
@@ -5872,11 +8951,12 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://dps.psx.com.pk/company/PAEL" xr:uid="{99847E30-631A-4AF8-A296-F5CD58A4E286}"/>
-    <hyperlink ref="A5" r:id="rId2" display="https://dps.psx.com.pk/company/KEL" xr:uid="{76B409EE-BF08-487E-A9CC-6B2DB6CDCBB9}"/>
-    <hyperlink ref="A7" r:id="rId3" display="https://dps.psx.com.pk/company/BOP" xr:uid="{2F2EE253-B9CE-48D4-AFAC-E2022F538136}"/>
-    <hyperlink ref="A9" r:id="rId4" display="https://dps.psx.com.pk/company/ENGRO" xr:uid="{E49A92C6-BCF1-420E-99C8-BB3ACF28DB4A}"/>
-    <hyperlink ref="A11" r:id="rId5" display="https://dps.psx.com.pk/company/PPL" xr:uid="{8FDFE715-0A5B-41E1-95B8-443906D754AA}"/>
+    <hyperlink ref="A3" r:id="rId1" display="https://dps.psx.com.pk/company/PAEL" xr:uid="{98F2D85D-359C-45D7-8983-5A81A2E89C5F}"/>
+    <hyperlink ref="A5" r:id="rId2" display="https://dps.psx.com.pk/company/KEL" xr:uid="{14DDA949-B0F7-4C1A-A315-86D0FE15A088}"/>
+    <hyperlink ref="A7" r:id="rId3" display="https://dps.psx.com.pk/company/BOP" xr:uid="{7B5F6CCD-E160-4AD1-A68C-60C080B8503E}"/>
+    <hyperlink ref="A9" r:id="rId4" display="https://dps.psx.com.pk/company/ENGRO" xr:uid="{5BE33529-F5B2-42C2-B26E-3AEB10C511F9}"/>
+    <hyperlink ref="A11" r:id="rId5" display="https://dps.psx.com.pk/company/PPL" xr:uid="{9B99BB9B-9EE3-4369-AAD1-540D084DE806}"/>
+    <hyperlink ref="B4" r:id="rId6" display="https://dps.psx.com.pk/company/BAFL" xr:uid="{B441C546-2BD2-4D5A-817B-A632AA961610}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/demo_portfolio_excel.xlsx
+++ b/demo_portfolio_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AniqueKhan\Code Repositories\demo_portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404E5604-DF35-43FF-AC07-4F72EF34ED23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8032227-9D6F-4344-8808-B0AB44213A5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" firstSheet="3" activeTab="12" xr2:uid="{AEF8CCA4-55DF-47C9-998A-0C95064B493A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" firstSheet="10" activeTab="20" xr2:uid="{AEF8CCA4-55DF-47C9-998A-0C95064B493A}"/>
   </bookViews>
   <sheets>
     <sheet name="8 Dec" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,14 @@
     <sheet name="22 Dec" sheetId="11" r:id="rId11"/>
     <sheet name="26 Dec" sheetId="12" r:id="rId12"/>
     <sheet name="27 Dec" sheetId="13" r:id="rId13"/>
+    <sheet name="28 Dec" sheetId="14" r:id="rId14"/>
+    <sheet name="29 Dec" sheetId="15" r:id="rId15"/>
+    <sheet name="1 Jan" sheetId="16" r:id="rId16"/>
+    <sheet name="2 Jan" sheetId="17" r:id="rId17"/>
+    <sheet name="3 Jan" sheetId="18" r:id="rId18"/>
+    <sheet name="4 Jan" sheetId="19" r:id="rId19"/>
+    <sheet name="5 Jan" sheetId="20" r:id="rId20"/>
+    <sheet name="8 Jan" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="60">
   <si>
     <t>Symbol</t>
   </si>
@@ -212,12 +220,18 @@
   <si>
     <t>Systems Limited</t>
   </si>
+  <si>
+    <t>HCAR</t>
+  </si>
+  <si>
+    <t>Honda Atlas Cars (Pakistan) Limited</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,16 +239,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -242,14 +268,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF111111"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1005,7 +1044,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="A1:M12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3133,8 +3172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE96F92A-5CDE-4FBE-AFCE-DB214C269EBD}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="A1:M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="A1:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3662,6 +3701,3715 @@
     <hyperlink ref="B9" r:id="rId7" display="https://dps.psx.com.pk/company/AHL" xr:uid="{B1ADAF60-8B43-4236-AF71-AC9A381382C7}"/>
     <hyperlink ref="A11" r:id="rId8" display="https://dps.psx.com.pk/company/SYS" xr:uid="{9307C57B-B3C1-44D8-9A2C-35798D778E36}"/>
     <hyperlink ref="B11" r:id="rId9" display="https://dps.psx.com.pk/company/SYS" xr:uid="{D9885D5B-1198-4F16-9345-236A7BFB5A7B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DCE94E-CDC1-43A1-A7ED-3353A1C1B9AE}">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>106.8</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>107.2</v>
+      </c>
+      <c r="F2">
+        <v>1753.5</v>
+      </c>
+      <c r="G2">
+        <f>PRODUCT(D2,E2)</f>
+        <v>1608</v>
+      </c>
+      <c r="H2">
+        <f>G2-F2</f>
+        <v>-145.5</v>
+      </c>
+      <c r="I2">
+        <v>0.5</v>
+      </c>
+      <c r="J2">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="K2">
+        <v>7101491</v>
+      </c>
+      <c r="L2">
+        <v>645139260</v>
+      </c>
+      <c r="M2">
+        <v>529014193.19999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>20.41</v>
+      </c>
+      <c r="D3">
+        <v>86</v>
+      </c>
+      <c r="E3">
+        <v>21.15</v>
+      </c>
+      <c r="F3">
+        <v>2011.54</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="0">PRODUCT(D3,E3)</f>
+        <v>1818.8999999999999</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="1">G3-F3</f>
+        <v>-192.6400000000001</v>
+      </c>
+      <c r="I3">
+        <v>1.7</v>
+      </c>
+      <c r="J3">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="K3">
+        <v>30108719</v>
+      </c>
+      <c r="L3">
+        <v>428006078</v>
+      </c>
+      <c r="M3">
+        <v>20886696.579999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>47</v>
+      </c>
+      <c r="D4">
+        <v>78</v>
+      </c>
+      <c r="E4">
+        <v>47.01</v>
+      </c>
+      <c r="F4">
+        <v>3801.7200000000003</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>3666.7799999999997</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>-134.94000000000051</v>
+      </c>
+      <c r="I4">
+        <v>-0.88</v>
+      </c>
+      <c r="J4">
+        <v>-7.1999999999999998E-3</v>
+      </c>
+      <c r="K4">
+        <v>3348106</v>
+      </c>
+      <c r="L4">
+        <v>972865790</v>
+      </c>
+      <c r="M4">
+        <v>156631393.80000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>4.72</v>
+      </c>
+      <c r="D5">
+        <v>5400</v>
+      </c>
+      <c r="E5">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="F5">
+        <v>29970</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>26406</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>-3564</v>
+      </c>
+      <c r="I5">
+        <v>-0.02</v>
+      </c>
+      <c r="J5">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="K5">
+        <v>35741651</v>
+      </c>
+      <c r="L5">
+        <v>2761519425</v>
+      </c>
+      <c r="M5">
+        <v>124268374.09999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>12.05</v>
+      </c>
+      <c r="D6">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>11.99</v>
+      </c>
+      <c r="F6">
+        <v>384.09000000000003</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>371.69</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>-12.400000000000034</v>
+      </c>
+      <c r="I6">
+        <v>-0.06</v>
+      </c>
+      <c r="J6">
+        <v>-4.8999999999999998E-3</v>
+      </c>
+      <c r="K6">
+        <v>821145</v>
+      </c>
+      <c r="L6">
+        <v>8623425</v>
+      </c>
+      <c r="M6">
+        <v>4540324.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>6.18</v>
+      </c>
+      <c r="D7">
+        <v>1800</v>
+      </c>
+      <c r="E7">
+        <v>6.31</v>
+      </c>
+      <c r="F7">
+        <v>12762</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>11358</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>-1404</v>
+      </c>
+      <c r="I7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J7">
+        <v>9.06E-2</v>
+      </c>
+      <c r="K7">
+        <v>54403778</v>
+      </c>
+      <c r="L7">
+        <v>1381554339</v>
+      </c>
+      <c r="M7">
+        <v>22442965.539999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8">
+        <v>3.49</v>
+      </c>
+      <c r="D8">
+        <v>101</v>
+      </c>
+      <c r="E8">
+        <v>3.41</v>
+      </c>
+      <c r="F8">
+        <v>363.6</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>344.41</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>-19.189999999999998</v>
+      </c>
+      <c r="I8">
+        <v>-0.54</v>
+      </c>
+      <c r="J8">
+        <v>-1.9599999999999999E-2</v>
+      </c>
+      <c r="K8">
+        <v>798509</v>
+      </c>
+      <c r="L8">
+        <v>74252857</v>
+      </c>
+      <c r="M8">
+        <v>8016338.4100000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9">
+        <v>41</v>
+      </c>
+      <c r="D9">
+        <v>131</v>
+      </c>
+      <c r="E9">
+        <v>41.3</v>
+      </c>
+      <c r="F9">
+        <v>5580.6</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>5410.2999999999993</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>-170.30000000000109</v>
+      </c>
+      <c r="I9">
+        <v>0.5</v>
+      </c>
+      <c r="J9">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="K9">
+        <v>728302</v>
+      </c>
+      <c r="L9">
+        <v>268313234</v>
+      </c>
+      <c r="M9">
+        <v>172369787.78999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>5.48</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>5.61</v>
+      </c>
+      <c r="F10">
+        <v>169.5</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>168.3</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>-1.1999999999999886</v>
+      </c>
+      <c r="I10">
+        <v>-0.63</v>
+      </c>
+      <c r="J10">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="K10">
+        <v>6900</v>
+      </c>
+      <c r="L10">
+        <v>20070662</v>
+      </c>
+      <c r="M10">
+        <v>16056529.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11">
+        <v>416</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>432.37</v>
+      </c>
+      <c r="F11">
+        <v>43200</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>43237</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="I11">
+        <v>2.16</v>
+      </c>
+      <c r="J11">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="K11">
+        <v>9265930</v>
+      </c>
+      <c r="L11">
+        <v>667914508</v>
+      </c>
+      <c r="M11">
+        <v>319169493.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <f>SUM(F2:F11)</f>
+        <v>99996.549999999988</v>
+      </c>
+      <c r="G12">
+        <f>SUM(G2:G11)</f>
+        <v>94389.38</v>
+      </c>
+      <c r="H12">
+        <f>SUM(H2:H11)</f>
+        <v>-5607.1700000000019</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H2:H11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="https://dps.psx.com.pk/company/PAEL" xr:uid="{E1B151DF-4BB2-4F6B-8B7D-118A94E895A0}"/>
+    <hyperlink ref="A5" r:id="rId2" display="https://dps.psx.com.pk/company/KEL" xr:uid="{19F4E9DD-6609-4F9A-8930-7CBCA224A112}"/>
+    <hyperlink ref="A7" r:id="rId3" display="https://dps.psx.com.pk/company/BOP" xr:uid="{EA28A0C9-D7FE-4D80-BCDC-114175EAB1B8}"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://dps.psx.com.pk/company/BAFL" xr:uid="{D13A2AC5-E448-4DE6-876D-B58FAE385F43}"/>
+    <hyperlink ref="B8" r:id="rId5" display="https://dps.psx.com.pk/company/HIFA" xr:uid="{A4A5296F-AD08-42C2-BB2F-A7AA1FD45FE3}"/>
+    <hyperlink ref="A9" r:id="rId6" display="https://dps.psx.com.pk/company/AHL" xr:uid="{FDA41C27-147F-4539-A65C-FCFE317E560E}"/>
+    <hyperlink ref="B9" r:id="rId7" display="https://dps.psx.com.pk/company/AHL" xr:uid="{55EA5116-CA4A-4DF7-9305-481E3FF15EA4}"/>
+    <hyperlink ref="A11" r:id="rId8" display="https://dps.psx.com.pk/company/SYS" xr:uid="{FAEE9597-EFD9-4B70-8643-F51709096030}"/>
+    <hyperlink ref="B11" r:id="rId9" display="https://dps.psx.com.pk/company/SYS" xr:uid="{5F46F0BB-2B8E-4343-ADCC-545E74F63AB5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54EE308-CAC4-44A9-9AB2-8E1EAE4457FE}">
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>107.2</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>110.16</v>
+      </c>
+      <c r="F2">
+        <v>1753.5</v>
+      </c>
+      <c r="G2">
+        <f>PRODUCT(D2,E2)</f>
+        <v>1652.3999999999999</v>
+      </c>
+      <c r="H2">
+        <f>G2-F2</f>
+        <v>-101.10000000000014</v>
+      </c>
+      <c r="I2">
+        <v>0.5</v>
+      </c>
+      <c r="J2">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="K2">
+        <v>7101491</v>
+      </c>
+      <c r="L2">
+        <v>645139260</v>
+      </c>
+      <c r="M2">
+        <v>529014193.19999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>21.15</v>
+      </c>
+      <c r="D3">
+        <v>86</v>
+      </c>
+      <c r="E3">
+        <v>21.12</v>
+      </c>
+      <c r="F3">
+        <v>2011.54</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="0">PRODUCT(D3,E3)</f>
+        <v>1816.3200000000002</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="1">G3-F3</f>
+        <v>-195.2199999999998</v>
+      </c>
+      <c r="I3">
+        <v>1.7</v>
+      </c>
+      <c r="J3">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="K3">
+        <v>30108719</v>
+      </c>
+      <c r="L3">
+        <v>428006078</v>
+      </c>
+      <c r="M3">
+        <v>20886696.579999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>47.01</v>
+      </c>
+      <c r="D4">
+        <v>78</v>
+      </c>
+      <c r="E4">
+        <v>48.92</v>
+      </c>
+      <c r="F4">
+        <v>3801.7200000000003</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>3815.76</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>14.039999999999964</v>
+      </c>
+      <c r="I4">
+        <v>-0.88</v>
+      </c>
+      <c r="J4">
+        <v>-7.1999999999999998E-3</v>
+      </c>
+      <c r="K4">
+        <v>3348106</v>
+      </c>
+      <c r="L4">
+        <v>972865790</v>
+      </c>
+      <c r="M4">
+        <v>156631393.80000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D5">
+        <v>5400</v>
+      </c>
+      <c r="E5">
+        <v>4.76</v>
+      </c>
+      <c r="F5">
+        <v>29970</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>25704</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>-4266</v>
+      </c>
+      <c r="I5">
+        <v>-0.02</v>
+      </c>
+      <c r="J5">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="K5">
+        <v>35741651</v>
+      </c>
+      <c r="L5">
+        <v>2761519425</v>
+      </c>
+      <c r="M5">
+        <v>124268374.09999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>11.99</v>
+      </c>
+      <c r="D6">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>12.32</v>
+      </c>
+      <c r="F6">
+        <v>384.09000000000003</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>381.92</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>-2.1700000000000159</v>
+      </c>
+      <c r="I6">
+        <v>-0.06</v>
+      </c>
+      <c r="J6">
+        <v>-4.8999999999999998E-3</v>
+      </c>
+      <c r="K6">
+        <v>821145</v>
+      </c>
+      <c r="L6">
+        <v>8623425</v>
+      </c>
+      <c r="M6">
+        <v>4540324.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>6.31</v>
+      </c>
+      <c r="D7">
+        <v>1800</v>
+      </c>
+      <c r="E7">
+        <v>6.39</v>
+      </c>
+      <c r="F7">
+        <v>12762</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>11502</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>-1260</v>
+      </c>
+      <c r="I7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J7">
+        <v>9.06E-2</v>
+      </c>
+      <c r="K7">
+        <v>54403778</v>
+      </c>
+      <c r="L7">
+        <v>1381554339</v>
+      </c>
+      <c r="M7">
+        <v>22442965.539999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8">
+        <v>3.41</v>
+      </c>
+      <c r="D8">
+        <v>101</v>
+      </c>
+      <c r="E8">
+        <v>3.45</v>
+      </c>
+      <c r="F8">
+        <v>363.6</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>348.45000000000005</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>-15.149999999999977</v>
+      </c>
+      <c r="I8">
+        <v>-0.54</v>
+      </c>
+      <c r="J8">
+        <v>-1.9599999999999999E-2</v>
+      </c>
+      <c r="K8">
+        <v>798509</v>
+      </c>
+      <c r="L8">
+        <v>74252857</v>
+      </c>
+      <c r="M8">
+        <v>8016338.4100000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9">
+        <v>41.3</v>
+      </c>
+      <c r="D9">
+        <v>131</v>
+      </c>
+      <c r="E9">
+        <v>3.45</v>
+      </c>
+      <c r="F9">
+        <v>5580.6</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>451.95000000000005</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>-5128.6500000000005</v>
+      </c>
+      <c r="I9">
+        <v>0.5</v>
+      </c>
+      <c r="J9">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="K9">
+        <v>728302</v>
+      </c>
+      <c r="L9">
+        <v>268313234</v>
+      </c>
+      <c r="M9">
+        <v>172369787.78999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>5.61</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>6.03</v>
+      </c>
+      <c r="F10">
+        <v>169.5</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>180.9</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>11.400000000000006</v>
+      </c>
+      <c r="I10">
+        <v>-0.63</v>
+      </c>
+      <c r="J10">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="K10">
+        <v>6900</v>
+      </c>
+      <c r="L10">
+        <v>20070662</v>
+      </c>
+      <c r="M10">
+        <v>16056529.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11">
+        <v>432.37</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>425.05</v>
+      </c>
+      <c r="F11">
+        <v>43200</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>42505</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>-695</v>
+      </c>
+      <c r="I11">
+        <v>2.16</v>
+      </c>
+      <c r="J11">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="K11">
+        <v>9265930</v>
+      </c>
+      <c r="L11">
+        <v>667914508</v>
+      </c>
+      <c r="M11">
+        <v>319169493.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <f>SUM(F2:F11)</f>
+        <v>99996.549999999988</v>
+      </c>
+      <c r="G12">
+        <f>SUM(G2:G11)</f>
+        <v>88358.7</v>
+      </c>
+      <c r="H12">
+        <f>SUM(H2:H11)</f>
+        <v>-11637.85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>107.2</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>110.16</v>
+      </c>
+      <c r="F17">
+        <f>E17*D17</f>
+        <v>660.96</v>
+      </c>
+      <c r="G17">
+        <f>PRODUCT(D17,E17)</f>
+        <v>660.96</v>
+      </c>
+      <c r="H17">
+        <v>-101.10000000000014</v>
+      </c>
+      <c r="I17">
+        <v>0.5</v>
+      </c>
+      <c r="J17">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="K17">
+        <v>7101491</v>
+      </c>
+      <c r="L17">
+        <v>645139260</v>
+      </c>
+      <c r="M17">
+        <v>529014193.19999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>21.15</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>21.12</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18:F26" si="2">E18*D18</f>
+        <v>1056</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:G26" si="3">PRODUCT(D18,E18)</f>
+        <v>1056</v>
+      </c>
+      <c r="H18">
+        <v>-195.2199999999998</v>
+      </c>
+      <c r="I18">
+        <v>1.7</v>
+      </c>
+      <c r="J18">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="K18">
+        <v>30108719</v>
+      </c>
+      <c r="L18">
+        <v>428006078</v>
+      </c>
+      <c r="M18">
+        <v>20886696.579999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19">
+        <v>47.01</v>
+      </c>
+      <c r="D19">
+        <v>98</v>
+      </c>
+      <c r="E19">
+        <v>48.92</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>4794.16</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>4794.16</v>
+      </c>
+      <c r="H19">
+        <v>14.039999999999964</v>
+      </c>
+      <c r="I19">
+        <v>-0.88</v>
+      </c>
+      <c r="J19">
+        <v>-7.1999999999999998E-3</v>
+      </c>
+      <c r="K19">
+        <v>3348106</v>
+      </c>
+      <c r="L19">
+        <v>972865790</v>
+      </c>
+      <c r="M19">
+        <v>156631393.80000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>4.76</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>238</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>238</v>
+      </c>
+      <c r="H20">
+        <v>-4266</v>
+      </c>
+      <c r="I20">
+        <v>-0.02</v>
+      </c>
+      <c r="J20">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="K20">
+        <v>35741651</v>
+      </c>
+      <c r="L20">
+        <v>2761519425</v>
+      </c>
+      <c r="M20">
+        <v>124268374.09999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>11.99</v>
+      </c>
+      <c r="D21">
+        <v>32</v>
+      </c>
+      <c r="E21">
+        <v>12.32</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>394.24</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>394.24</v>
+      </c>
+      <c r="H21">
+        <v>-2.1700000000000159</v>
+      </c>
+      <c r="I21">
+        <v>-0.06</v>
+      </c>
+      <c r="J21">
+        <v>-4.8999999999999998E-3</v>
+      </c>
+      <c r="K21">
+        <v>821145</v>
+      </c>
+      <c r="L21">
+        <v>8623425</v>
+      </c>
+      <c r="M21">
+        <v>4540324.03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>6.31</v>
+      </c>
+      <c r="D22">
+        <v>240</v>
+      </c>
+      <c r="E22">
+        <v>6.39</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>1533.6</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>1533.6</v>
+      </c>
+      <c r="H22">
+        <v>-1260</v>
+      </c>
+      <c r="I22">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J22">
+        <v>9.06E-2</v>
+      </c>
+      <c r="K22">
+        <v>54403778</v>
+      </c>
+      <c r="L22">
+        <v>1381554339</v>
+      </c>
+      <c r="M22">
+        <v>22442965.539999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23">
+        <v>3.41</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="E23">
+        <v>3.45</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>345</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>345</v>
+      </c>
+      <c r="H23">
+        <v>-15.149999999999977</v>
+      </c>
+      <c r="I23">
+        <v>-0.54</v>
+      </c>
+      <c r="J23">
+        <v>-1.9599999999999999E-2</v>
+      </c>
+      <c r="K23">
+        <v>798509</v>
+      </c>
+      <c r="L23">
+        <v>74252857</v>
+      </c>
+      <c r="M23">
+        <v>8016338.4100000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24">
+        <v>211.06</v>
+      </c>
+      <c r="D24">
+        <v>350</v>
+      </c>
+      <c r="E24">
+        <v>212.9</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>74515</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>74515</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25">
+        <v>5.61</v>
+      </c>
+      <c r="D25">
+        <v>1250</v>
+      </c>
+      <c r="E25">
+        <v>6.03</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>7537.5</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>7537.5</v>
+      </c>
+      <c r="H25">
+        <v>11.400000000000006</v>
+      </c>
+      <c r="I25">
+        <v>-0.63</v>
+      </c>
+      <c r="J25">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="K25">
+        <v>6900</v>
+      </c>
+      <c r="L25">
+        <v>20070662</v>
+      </c>
+      <c r="M25">
+        <v>16056529.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26">
+        <v>432.37</v>
+      </c>
+      <c r="D26">
+        <v>21</v>
+      </c>
+      <c r="E26">
+        <v>425.05</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>8926.0500000000011</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>8926.0500000000011</v>
+      </c>
+      <c r="H26">
+        <v>-695</v>
+      </c>
+      <c r="I26">
+        <v>2.16</v>
+      </c>
+      <c r="J26">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="K26">
+        <v>9265930</v>
+      </c>
+      <c r="L26">
+        <v>667914508</v>
+      </c>
+      <c r="M26">
+        <v>319169493.38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F27">
+        <f>SUM(F17:F26)</f>
+        <v>100000.51</v>
+      </c>
+      <c r="G27">
+        <f>SUM(G17:G26)</f>
+        <v>100000.51</v>
+      </c>
+      <c r="H27">
+        <v>-11637.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H2:H11">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:H26">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="https://dps.psx.com.pk/company/PAEL" xr:uid="{7A5C9A22-FAE6-4C11-9271-312420127D25}"/>
+    <hyperlink ref="A5" r:id="rId2" display="https://dps.psx.com.pk/company/KEL" xr:uid="{966ADFC2-D287-4100-AC41-222BB411F43F}"/>
+    <hyperlink ref="A7" r:id="rId3" display="https://dps.psx.com.pk/company/BOP" xr:uid="{E3619062-EEE9-472E-BD32-352A09CB549D}"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://dps.psx.com.pk/company/BAFL" xr:uid="{6777554B-010A-4989-AF27-010A14E78563}"/>
+    <hyperlink ref="B8" r:id="rId5" display="https://dps.psx.com.pk/company/HIFA" xr:uid="{DDBB8F40-C03C-460C-B0ED-35BB4487DC42}"/>
+    <hyperlink ref="A9" r:id="rId6" display="https://dps.psx.com.pk/company/AHL" xr:uid="{F34F6FCA-AA1B-459C-9ADD-63CCE9685F20}"/>
+    <hyperlink ref="B9" r:id="rId7" display="https://dps.psx.com.pk/company/AHL" xr:uid="{9B7F0C2A-182E-478A-9D65-B81271AE591E}"/>
+    <hyperlink ref="A11" r:id="rId8" display="https://dps.psx.com.pk/company/SYS" xr:uid="{854B2FF3-7EC3-45AA-8618-516589C2677A}"/>
+    <hyperlink ref="B11" r:id="rId9" display="https://dps.psx.com.pk/company/SYS" xr:uid="{230C0C78-5184-4F65-A664-8D2B790A5485}"/>
+    <hyperlink ref="A18" r:id="rId10" display="https://dps.psx.com.pk/company/PAEL" xr:uid="{1C0926D9-451F-4F8A-9091-ACFB88D01465}"/>
+    <hyperlink ref="A20" r:id="rId11" display="https://dps.psx.com.pk/company/KEL" xr:uid="{A497CD1A-4240-4F0B-AAD2-2EE5E3CFA0F2}"/>
+    <hyperlink ref="A22" r:id="rId12" display="https://dps.psx.com.pk/company/BOP" xr:uid="{3A78069F-B496-43AE-AAE5-E8693280F172}"/>
+    <hyperlink ref="B19" r:id="rId13" display="https://dps.psx.com.pk/company/BAFL" xr:uid="{8B7CA7CF-C42A-4B0E-974B-8AB94E893056}"/>
+    <hyperlink ref="B23" r:id="rId14" display="https://dps.psx.com.pk/company/HIFA" xr:uid="{1CE59D4F-8ABF-4981-B05C-5CD3C01290A4}"/>
+    <hyperlink ref="A26" r:id="rId15" display="https://dps.psx.com.pk/company/SYS" xr:uid="{658A8AD3-0057-4222-8D27-F03C016F9D47}"/>
+    <hyperlink ref="B26" r:id="rId16" display="https://dps.psx.com.pk/company/SYS" xr:uid="{5CDB088F-3997-462E-890D-98BD26CC8668}"/>
+    <hyperlink ref="A24" r:id="rId17" display="https://dps.psx.com.pk/company/HCAR" xr:uid="{9EE85460-053A-4751-9878-E06A1DD39F8C}"/>
+    <hyperlink ref="B24" r:id="rId18" display="https://dps.psx.com.pk/company/HCAR" xr:uid="{5E8BF633-1561-4D70-BD5B-D39478D431AC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A13DBD-7CFF-4E0D-B27B-FFF039F09596}">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>110.16</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>112.45</v>
+      </c>
+      <c r="F2">
+        <v>660.96</v>
+      </c>
+      <c r="G2">
+        <f>PRODUCT(D2,E2)</f>
+        <v>674.7</v>
+      </c>
+      <c r="H2">
+        <f>G2-F2</f>
+        <v>13.740000000000009</v>
+      </c>
+      <c r="I2">
+        <v>0.5</v>
+      </c>
+      <c r="J2">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="K2">
+        <v>7101491</v>
+      </c>
+      <c r="L2">
+        <v>645139260</v>
+      </c>
+      <c r="M2">
+        <v>529014193.19999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>21.12</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>22.58</v>
+      </c>
+      <c r="F3">
+        <v>1056</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="0">PRODUCT(D3,E3)</f>
+        <v>1129</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="1">G3-F3</f>
+        <v>73</v>
+      </c>
+      <c r="I3">
+        <v>1.7</v>
+      </c>
+      <c r="J3">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="K3">
+        <v>30108719</v>
+      </c>
+      <c r="L3">
+        <v>428006078</v>
+      </c>
+      <c r="M3">
+        <v>20886696.579999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>48.92</v>
+      </c>
+      <c r="D4">
+        <v>98</v>
+      </c>
+      <c r="E4">
+        <v>48.51</v>
+      </c>
+      <c r="F4">
+        <v>4794.16</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>4753.9799999999996</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>-40.180000000000291</v>
+      </c>
+      <c r="I4">
+        <v>-0.88</v>
+      </c>
+      <c r="J4">
+        <v>-7.1999999999999998E-3</v>
+      </c>
+      <c r="K4">
+        <v>3348106</v>
+      </c>
+      <c r="L4">
+        <v>972865790</v>
+      </c>
+      <c r="M4">
+        <v>156631393.80000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>4.76</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>5.26</v>
+      </c>
+      <c r="F5">
+        <v>238</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>263</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <v>-0.02</v>
+      </c>
+      <c r="J5">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="K5">
+        <v>35741651</v>
+      </c>
+      <c r="L5">
+        <v>2761519425</v>
+      </c>
+      <c r="M5">
+        <v>124268374.09999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>12.32</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>12.41</v>
+      </c>
+      <c r="F6">
+        <v>394.24</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>397.12</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>2.8799999999999955</v>
+      </c>
+      <c r="I6">
+        <v>-0.06</v>
+      </c>
+      <c r="J6">
+        <v>-4.8999999999999998E-3</v>
+      </c>
+      <c r="K6">
+        <v>821145</v>
+      </c>
+      <c r="L6">
+        <v>8623425</v>
+      </c>
+      <c r="M6">
+        <v>4540324.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>6.39</v>
+      </c>
+      <c r="D7">
+        <v>240</v>
+      </c>
+      <c r="E7">
+        <v>6.48</v>
+      </c>
+      <c r="F7">
+        <v>1533.6</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1555.2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>21.600000000000136</v>
+      </c>
+      <c r="I7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J7">
+        <v>9.06E-2</v>
+      </c>
+      <c r="K7">
+        <v>54403778</v>
+      </c>
+      <c r="L7">
+        <v>1381554339</v>
+      </c>
+      <c r="M7">
+        <v>22442965.539999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8">
+        <v>3.45</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>3.45</v>
+      </c>
+      <c r="F8">
+        <v>345</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>345</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>-0.54</v>
+      </c>
+      <c r="J8">
+        <v>-1.9599999999999999E-2</v>
+      </c>
+      <c r="K8">
+        <v>798509</v>
+      </c>
+      <c r="L8">
+        <v>74252857</v>
+      </c>
+      <c r="M8">
+        <v>8016338.4100000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9">
+        <v>211.06</v>
+      </c>
+      <c r="D9">
+        <v>350</v>
+      </c>
+      <c r="E9" s="2">
+        <v>213.72</v>
+      </c>
+      <c r="F9">
+        <v>74515</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>74802</v>
+      </c>
+      <c r="H9">
+        <f>G9-F9</f>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>6.03</v>
+      </c>
+      <c r="D10">
+        <v>1250</v>
+      </c>
+      <c r="E10">
+        <v>5.96</v>
+      </c>
+      <c r="F10">
+        <v>7537.5</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>7450</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>-87.5</v>
+      </c>
+      <c r="I10">
+        <v>-0.63</v>
+      </c>
+      <c r="J10">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="K10">
+        <v>6900</v>
+      </c>
+      <c r="L10">
+        <v>20070662</v>
+      </c>
+      <c r="M10">
+        <v>16056529.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11">
+        <v>425.05</v>
+      </c>
+      <c r="D11">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>423.56</v>
+      </c>
+      <c r="F11">
+        <v>8926.0500000000011</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>8894.76</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>-31.290000000000873</v>
+      </c>
+      <c r="I11">
+        <v>2.16</v>
+      </c>
+      <c r="J11">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="K11">
+        <v>9265930</v>
+      </c>
+      <c r="L11">
+        <v>667914508</v>
+      </c>
+      <c r="M11">
+        <v>319169493.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <v>100000.51</v>
+      </c>
+      <c r="G12">
+        <f>SUM(G2:G11)</f>
+        <v>100264.76</v>
+      </c>
+      <c r="H12">
+        <f>SUM(H2:H11)</f>
+        <v>264.24999999999898</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D17" s="2"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H2:H8 H10:H12">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="https://dps.psx.com.pk/company/PAEL" xr:uid="{0D37F081-3481-465B-9BF6-5D2DA1513FCB}"/>
+    <hyperlink ref="A5" r:id="rId2" display="https://dps.psx.com.pk/company/KEL" xr:uid="{8B95CCFB-85AB-4A63-88E3-704436448E03}"/>
+    <hyperlink ref="A7" r:id="rId3" display="https://dps.psx.com.pk/company/BOP" xr:uid="{B5CD83FF-4B27-411B-9FA8-E3B5B0BC0CCC}"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://dps.psx.com.pk/company/BAFL" xr:uid="{4099B783-29F5-407E-89AE-B5AE2DA4B816}"/>
+    <hyperlink ref="B8" r:id="rId5" display="https://dps.psx.com.pk/company/HIFA" xr:uid="{B892F0D7-891E-411F-9F6D-D8B8ED6228B2}"/>
+    <hyperlink ref="A11" r:id="rId6" display="https://dps.psx.com.pk/company/SYS" xr:uid="{EFBF49A7-B423-414F-9FC2-492AE60627C0}"/>
+    <hyperlink ref="B11" r:id="rId7" display="https://dps.psx.com.pk/company/SYS" xr:uid="{F44AED11-DB99-4902-A7CF-A6BA38CB1130}"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://dps.psx.com.pk/company/HCAR" xr:uid="{AE18A126-3772-4436-AB14-C856C4138F21}"/>
+    <hyperlink ref="B9" r:id="rId9" display="https://dps.psx.com.pk/company/HCAR" xr:uid="{E00D6681-99F5-4722-9813-B0FF3EF0B714}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627CD1F0-0E79-428D-8727-DD1488C6D56F}">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="A1:M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>112.45</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>120.88</v>
+      </c>
+      <c r="F2">
+        <v>660.96</v>
+      </c>
+      <c r="G2">
+        <f>PRODUCT(D2,E2)</f>
+        <v>725.28</v>
+      </c>
+      <c r="H2">
+        <f>G2-F2</f>
+        <v>64.319999999999936</v>
+      </c>
+      <c r="I2">
+        <v>0.5</v>
+      </c>
+      <c r="J2">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="K2">
+        <v>7101491</v>
+      </c>
+      <c r="L2">
+        <v>645139260</v>
+      </c>
+      <c r="M2">
+        <v>529014193.19999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>22.58</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <v>1056</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="0">PRODUCT(D3,E3)</f>
+        <v>1200</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="1">G3-F3</f>
+        <v>144</v>
+      </c>
+      <c r="I3">
+        <v>1.7</v>
+      </c>
+      <c r="J3">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="K3">
+        <v>30108719</v>
+      </c>
+      <c r="L3">
+        <v>428006078</v>
+      </c>
+      <c r="M3">
+        <v>20886696.579999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>48.51</v>
+      </c>
+      <c r="D4">
+        <v>98</v>
+      </c>
+      <c r="E4">
+        <v>49.2</v>
+      </c>
+      <c r="F4">
+        <v>4794.16</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>4821.6000000000004</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>27.440000000000509</v>
+      </c>
+      <c r="I4">
+        <v>-0.88</v>
+      </c>
+      <c r="J4">
+        <v>-7.1999999999999998E-3</v>
+      </c>
+      <c r="K4">
+        <v>3348106</v>
+      </c>
+      <c r="L4">
+        <v>972865790</v>
+      </c>
+      <c r="M4">
+        <v>156631393.80000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>5.26</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>5.44</v>
+      </c>
+      <c r="F5">
+        <v>238</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>272</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="I5">
+        <v>-0.02</v>
+      </c>
+      <c r="J5">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="K5">
+        <v>35741651</v>
+      </c>
+      <c r="L5">
+        <v>2761519425</v>
+      </c>
+      <c r="M5">
+        <v>124268374.09999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>12.41</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>12.64</v>
+      </c>
+      <c r="F6">
+        <v>394.24</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>404.48</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>10.240000000000009</v>
+      </c>
+      <c r="I6">
+        <v>-0.06</v>
+      </c>
+      <c r="J6">
+        <v>-4.8999999999999998E-3</v>
+      </c>
+      <c r="K6">
+        <v>821145</v>
+      </c>
+      <c r="L6">
+        <v>8623425</v>
+      </c>
+      <c r="M6">
+        <v>4540324.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>6.48</v>
+      </c>
+      <c r="D7">
+        <v>240</v>
+      </c>
+      <c r="E7">
+        <v>6.94</v>
+      </c>
+      <c r="F7">
+        <v>1533.6</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1665.6000000000001</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>132.00000000000023</v>
+      </c>
+      <c r="I7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J7">
+        <v>9.06E-2</v>
+      </c>
+      <c r="K7">
+        <v>54403778</v>
+      </c>
+      <c r="L7">
+        <v>1381554339</v>
+      </c>
+      <c r="M7">
+        <v>22442965.539999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8">
+        <v>3.45</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>3.82</v>
+      </c>
+      <c r="F8">
+        <v>345</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>382</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="I8">
+        <v>-0.54</v>
+      </c>
+      <c r="J8">
+        <v>-1.9599999999999999E-2</v>
+      </c>
+      <c r="K8">
+        <v>798509</v>
+      </c>
+      <c r="L8">
+        <v>74252857</v>
+      </c>
+      <c r="M8">
+        <v>8016338.4100000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9">
+        <v>211.06</v>
+      </c>
+      <c r="D9">
+        <v>350</v>
+      </c>
+      <c r="E9">
+        <v>221.21</v>
+      </c>
+      <c r="F9">
+        <v>74515</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>77423.5</v>
+      </c>
+      <c r="H9">
+        <f>G9-F9</f>
+        <v>2908.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>5.96</v>
+      </c>
+      <c r="D10">
+        <v>1250</v>
+      </c>
+      <c r="E10">
+        <v>6.21</v>
+      </c>
+      <c r="F10">
+        <v>7537.5</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>7762.5</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="I10">
+        <v>-0.63</v>
+      </c>
+      <c r="J10">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="K10">
+        <v>6900</v>
+      </c>
+      <c r="L10">
+        <v>20070662</v>
+      </c>
+      <c r="M10">
+        <v>16056529.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11">
+        <v>423.56</v>
+      </c>
+      <c r="D11">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>447.75</v>
+      </c>
+      <c r="F11">
+        <v>8926.0500000000011</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>9402.75</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>476.69999999999891</v>
+      </c>
+      <c r="I11">
+        <v>2.16</v>
+      </c>
+      <c r="J11">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="K11">
+        <v>9265930</v>
+      </c>
+      <c r="L11">
+        <v>667914508</v>
+      </c>
+      <c r="M11">
+        <v>319169493.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <v>100000.51</v>
+      </c>
+      <c r="G12">
+        <f>SUM(G2:G11)</f>
+        <v>104059.71</v>
+      </c>
+      <c r="H12">
+        <f>SUM(H2:H11)</f>
+        <v>4059.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H2:H8 H10:H12">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="https://dps.psx.com.pk/company/PAEL" xr:uid="{E54B659F-1910-4421-B44E-FD754F9C58A9}"/>
+    <hyperlink ref="A5" r:id="rId2" display="https://dps.psx.com.pk/company/KEL" xr:uid="{72380510-6B29-4688-B495-95828FC963C6}"/>
+    <hyperlink ref="A7" r:id="rId3" display="https://dps.psx.com.pk/company/BOP" xr:uid="{02CBA6C1-9812-4163-9045-6F857F4E8464}"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://dps.psx.com.pk/company/BAFL" xr:uid="{B2570E5B-4A97-44CE-8A7C-6B46DE733F59}"/>
+    <hyperlink ref="B8" r:id="rId5" display="https://dps.psx.com.pk/company/HIFA" xr:uid="{7881C924-1B12-469F-9C84-5C404E595076}"/>
+    <hyperlink ref="A11" r:id="rId6" display="https://dps.psx.com.pk/company/SYS" xr:uid="{2983C5CC-CDE7-42BF-B756-64A1E5DFDE33}"/>
+    <hyperlink ref="B11" r:id="rId7" display="https://dps.psx.com.pk/company/SYS" xr:uid="{029E4B9F-07FF-41FD-ACE5-89F8F6388E16}"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://dps.psx.com.pk/company/HCAR" xr:uid="{38580F6D-FA01-493E-B509-8F21A8CB6828}"/>
+    <hyperlink ref="B9" r:id="rId9" display="https://dps.psx.com.pk/company/HCAR" xr:uid="{1EDE4129-A548-4A02-A576-E57710FF5D51}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84EF4DCC-A3CB-460F-9717-43625542F1EE}">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>120.88</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>122.92</v>
+      </c>
+      <c r="F2">
+        <v>660.96</v>
+      </c>
+      <c r="G2">
+        <f>PRODUCT(D2,E2)</f>
+        <v>737.52</v>
+      </c>
+      <c r="H2">
+        <f>G2-F2</f>
+        <v>76.559999999999945</v>
+      </c>
+      <c r="I2">
+        <v>0.5</v>
+      </c>
+      <c r="J2">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="K2">
+        <v>7101491</v>
+      </c>
+      <c r="L2">
+        <v>645139260</v>
+      </c>
+      <c r="M2">
+        <v>529014193.19999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>23.45</v>
+      </c>
+      <c r="F3">
+        <v>1056</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="0">PRODUCT(D3,E3)</f>
+        <v>1172.5</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="1">G3-F3</f>
+        <v>116.5</v>
+      </c>
+      <c r="I3">
+        <v>1.7</v>
+      </c>
+      <c r="J3">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="K3">
+        <v>30108719</v>
+      </c>
+      <c r="L3">
+        <v>428006078</v>
+      </c>
+      <c r="M3">
+        <v>20886696.579999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>49.2</v>
+      </c>
+      <c r="D4">
+        <v>98</v>
+      </c>
+      <c r="E4">
+        <v>48.77</v>
+      </c>
+      <c r="F4">
+        <v>4794.16</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>4779.46</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>-14.699999999999818</v>
+      </c>
+      <c r="I4">
+        <v>-0.88</v>
+      </c>
+      <c r="J4">
+        <v>-7.1999999999999998E-3</v>
+      </c>
+      <c r="K4">
+        <v>3348106</v>
+      </c>
+      <c r="L4">
+        <v>972865790</v>
+      </c>
+      <c r="M4">
+        <v>156631393.80000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>5.44</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>5.3</v>
+      </c>
+      <c r="F5">
+        <v>238</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>265</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="I5">
+        <v>-0.02</v>
+      </c>
+      <c r="J5">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="K5">
+        <v>35741651</v>
+      </c>
+      <c r="L5">
+        <v>2761519425</v>
+      </c>
+      <c r="M5">
+        <v>124268374.09999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>12.64</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>12.65</v>
+      </c>
+      <c r="F6">
+        <v>394.24</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>404.8</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>10.560000000000002</v>
+      </c>
+      <c r="I6">
+        <v>-0.06</v>
+      </c>
+      <c r="J6">
+        <v>-4.8999999999999998E-3</v>
+      </c>
+      <c r="K6">
+        <v>821145</v>
+      </c>
+      <c r="L6">
+        <v>8623425</v>
+      </c>
+      <c r="M6">
+        <v>4540324.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>6.94</v>
+      </c>
+      <c r="D7">
+        <v>240</v>
+      </c>
+      <c r="E7">
+        <v>6.88</v>
+      </c>
+      <c r="F7">
+        <v>1533.6</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1651.2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>117.60000000000014</v>
+      </c>
+      <c r="I7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J7">
+        <v>9.06E-2</v>
+      </c>
+      <c r="K7">
+        <v>54403778</v>
+      </c>
+      <c r="L7">
+        <v>1381554339</v>
+      </c>
+      <c r="M7">
+        <v>22442965.539999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8">
+        <v>3.82</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>3.76</v>
+      </c>
+      <c r="F8">
+        <v>345</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>376</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="I8">
+        <v>-0.54</v>
+      </c>
+      <c r="J8">
+        <v>-1.9599999999999999E-2</v>
+      </c>
+      <c r="K8">
+        <v>798509</v>
+      </c>
+      <c r="L8">
+        <v>74252857</v>
+      </c>
+      <c r="M8">
+        <v>8016338.4100000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9">
+        <v>221.21</v>
+      </c>
+      <c r="D9">
+        <v>350</v>
+      </c>
+      <c r="E9">
+        <v>213.86</v>
+      </c>
+      <c r="F9">
+        <v>74515</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>74851</v>
+      </c>
+      <c r="H9">
+        <f>G9-F9</f>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>6.21</v>
+      </c>
+      <c r="D10">
+        <v>1250</v>
+      </c>
+      <c r="E10">
+        <v>6.04</v>
+      </c>
+      <c r="F10">
+        <v>7537.5</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>7550</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="I10">
+        <v>-0.63</v>
+      </c>
+      <c r="J10">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="K10">
+        <v>6900</v>
+      </c>
+      <c r="L10">
+        <v>20070662</v>
+      </c>
+      <c r="M10">
+        <v>16056529.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11">
+        <v>447.75</v>
+      </c>
+      <c r="D11">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>441.08</v>
+      </c>
+      <c r="F11">
+        <v>8926.0500000000011</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>9262.68</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>336.6299999999992</v>
+      </c>
+      <c r="I11">
+        <v>2.16</v>
+      </c>
+      <c r="J11">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="K11">
+        <v>9265930</v>
+      </c>
+      <c r="L11">
+        <v>667914508</v>
+      </c>
+      <c r="M11">
+        <v>319169493.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <v>100000.51</v>
+      </c>
+      <c r="G12">
+        <f>SUM(G2:G11)</f>
+        <v>101050.16</v>
+      </c>
+      <c r="H12">
+        <f>SUM(H2:H11)</f>
+        <v>1049.6499999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H2:H8 H10:H12">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="https://dps.psx.com.pk/company/PAEL" xr:uid="{8E1DDC5B-54FB-471A-BA70-15B2615F9C92}"/>
+    <hyperlink ref="A5" r:id="rId2" display="https://dps.psx.com.pk/company/KEL" xr:uid="{AE276EE7-096E-4AE4-8940-DF0C3D27F703}"/>
+    <hyperlink ref="A7" r:id="rId3" display="https://dps.psx.com.pk/company/BOP" xr:uid="{8B461261-2138-4CE5-9136-8FB2E45995F5}"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://dps.psx.com.pk/company/BAFL" xr:uid="{583592A6-57FA-483D-8648-C27A9F9B4B22}"/>
+    <hyperlink ref="B8" r:id="rId5" display="https://dps.psx.com.pk/company/HIFA" xr:uid="{A81A8081-CDC7-480F-95A5-FAD3A4E5C483}"/>
+    <hyperlink ref="A11" r:id="rId6" display="https://dps.psx.com.pk/company/SYS" xr:uid="{353CEED0-EFD6-44C2-B39C-3EE752C1DFB1}"/>
+    <hyperlink ref="B11" r:id="rId7" display="https://dps.psx.com.pk/company/SYS" xr:uid="{401C28F7-0312-401F-AC7E-2834DB2EEBCB}"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://dps.psx.com.pk/company/HCAR" xr:uid="{BC612E96-37DC-4BE2-8B6F-25921CD8A928}"/>
+    <hyperlink ref="B9" r:id="rId9" display="https://dps.psx.com.pk/company/HCAR" xr:uid="{0C2D2042-D469-4EAD-8E51-AD7B1C936C55}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751EC33C-97DE-44F7-B0D4-B8F25CA20DB4}">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="A1:M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>122.92</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>127.39</v>
+      </c>
+      <c r="F2">
+        <v>660.96</v>
+      </c>
+      <c r="G2">
+        <f>PRODUCT(D2,E2)</f>
+        <v>764.34</v>
+      </c>
+      <c r="H2">
+        <f>G2-F2</f>
+        <v>103.38</v>
+      </c>
+      <c r="I2">
+        <v>0.5</v>
+      </c>
+      <c r="J2">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="K2">
+        <v>7101491</v>
+      </c>
+      <c r="L2">
+        <v>645139260</v>
+      </c>
+      <c r="M2">
+        <v>529014193.19999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>23.45</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>23.37</v>
+      </c>
+      <c r="F3">
+        <v>1056</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="0">PRODUCT(D3,E3)</f>
+        <v>1168.5</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="1">G3-F3</f>
+        <v>112.5</v>
+      </c>
+      <c r="I3">
+        <v>1.7</v>
+      </c>
+      <c r="J3">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="K3">
+        <v>30108719</v>
+      </c>
+      <c r="L3">
+        <v>428006078</v>
+      </c>
+      <c r="M3">
+        <v>20886696.579999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>48.77</v>
+      </c>
+      <c r="D4">
+        <v>98</v>
+      </c>
+      <c r="E4">
+        <v>48.87</v>
+      </c>
+      <c r="F4">
+        <v>4794.16</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>4789.2599999999993</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>-4.9000000000005457</v>
+      </c>
+      <c r="I4">
+        <v>-0.88</v>
+      </c>
+      <c r="J4">
+        <v>-7.1999999999999998E-3</v>
+      </c>
+      <c r="K4">
+        <v>3348106</v>
+      </c>
+      <c r="L4">
+        <v>972865790</v>
+      </c>
+      <c r="M4">
+        <v>156631393.80000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>5.3</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>5.47</v>
+      </c>
+      <c r="F5">
+        <v>238</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>273.5</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>35.5</v>
+      </c>
+      <c r="I5">
+        <v>-0.02</v>
+      </c>
+      <c r="J5">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="K5">
+        <v>35741651</v>
+      </c>
+      <c r="L5">
+        <v>2761519425</v>
+      </c>
+      <c r="M5">
+        <v>124268374.09999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>12.65</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>12.76</v>
+      </c>
+      <c r="F6">
+        <v>394.24</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>408.32</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>14.079999999999984</v>
+      </c>
+      <c r="I6">
+        <v>-0.06</v>
+      </c>
+      <c r="J6">
+        <v>-4.8999999999999998E-3</v>
+      </c>
+      <c r="K6">
+        <v>821145</v>
+      </c>
+      <c r="L6">
+        <v>8623425</v>
+      </c>
+      <c r="M6">
+        <v>4540324.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>6.88</v>
+      </c>
+      <c r="D7">
+        <v>240</v>
+      </c>
+      <c r="E7">
+        <v>6.97</v>
+      </c>
+      <c r="F7">
+        <v>1533.6</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1672.8</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>139.20000000000005</v>
+      </c>
+      <c r="I7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J7">
+        <v>9.06E-2</v>
+      </c>
+      <c r="K7">
+        <v>54403778</v>
+      </c>
+      <c r="L7">
+        <v>1381554339</v>
+      </c>
+      <c r="M7">
+        <v>22442965.539999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8">
+        <v>3.76</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>3.85</v>
+      </c>
+      <c r="F8">
+        <v>345</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>385</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I8">
+        <v>-0.54</v>
+      </c>
+      <c r="J8">
+        <v>-1.9599999999999999E-2</v>
+      </c>
+      <c r="K8">
+        <v>798509</v>
+      </c>
+      <c r="L8">
+        <v>74252857</v>
+      </c>
+      <c r="M8">
+        <v>8016338.4100000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9">
+        <v>213.86</v>
+      </c>
+      <c r="D9">
+        <v>350</v>
+      </c>
+      <c r="E9">
+        <v>211.06</v>
+      </c>
+      <c r="F9">
+        <v>74515</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>73871</v>
+      </c>
+      <c r="H9">
+        <f>G9-F9</f>
+        <v>-644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>6.04</v>
+      </c>
+      <c r="D10">
+        <v>1250</v>
+      </c>
+      <c r="E10">
+        <v>6.01</v>
+      </c>
+      <c r="F10">
+        <v>7537.5</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>7512.5</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>-25</v>
+      </c>
+      <c r="I10">
+        <v>-0.63</v>
+      </c>
+      <c r="J10">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="K10">
+        <v>6900</v>
+      </c>
+      <c r="L10">
+        <v>20070662</v>
+      </c>
+      <c r="M10">
+        <v>16056529.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11">
+        <v>441.08</v>
+      </c>
+      <c r="D11">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>437.13</v>
+      </c>
+      <c r="F11">
+        <v>8926.0500000000011</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>9179.73</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>253.67999999999847</v>
+      </c>
+      <c r="I11">
+        <v>2.16</v>
+      </c>
+      <c r="J11">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="K11">
+        <v>9265930</v>
+      </c>
+      <c r="L11">
+        <v>667914508</v>
+      </c>
+      <c r="M11">
+        <v>319169493.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <v>100000.51</v>
+      </c>
+      <c r="G12">
+        <f>SUM(G2:G11)</f>
+        <v>100024.95</v>
+      </c>
+      <c r="H12">
+        <f>SUM(H2:H11)</f>
+        <v>24.439999999997951</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H2:H8 H10:H12">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="https://dps.psx.com.pk/company/PAEL" xr:uid="{EE7D345B-29CF-43BE-9C83-213B90E1D79C}"/>
+    <hyperlink ref="A5" r:id="rId2" display="https://dps.psx.com.pk/company/KEL" xr:uid="{B99ADB76-F043-4E1D-AD18-261FCEECFDF3}"/>
+    <hyperlink ref="A7" r:id="rId3" display="https://dps.psx.com.pk/company/BOP" xr:uid="{BF742BE0-109C-46A3-9581-C12C16CF1628}"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://dps.psx.com.pk/company/BAFL" xr:uid="{C1213E57-EA9C-490C-AADF-213EDB7A7A1A}"/>
+    <hyperlink ref="B8" r:id="rId5" display="https://dps.psx.com.pk/company/HIFA" xr:uid="{6102E367-FCAD-48B3-B57E-BD128362A421}"/>
+    <hyperlink ref="A11" r:id="rId6" display="https://dps.psx.com.pk/company/SYS" xr:uid="{689B1DE4-A64E-4839-8C0A-BE4CB04462C3}"/>
+    <hyperlink ref="B11" r:id="rId7" display="https://dps.psx.com.pk/company/SYS" xr:uid="{3C0407B6-3282-44F6-B297-5A2AE59293A2}"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://dps.psx.com.pk/company/HCAR" xr:uid="{E00E3B54-D4B5-4C25-B48F-35F9CDE39AC9}"/>
+    <hyperlink ref="B9" r:id="rId9" display="https://dps.psx.com.pk/company/HCAR" xr:uid="{77A97FA1-E94E-41F7-B766-569D27064546}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4199,6 +7947,1571 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E5FD0D-39A1-40CA-B24E-0B5622437206}">
+  <dimension ref="A1:M28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>127.39</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>125.61</v>
+      </c>
+      <c r="F2">
+        <v>660.96</v>
+      </c>
+      <c r="G2">
+        <f>PRODUCT(D2,E2)</f>
+        <v>753.66</v>
+      </c>
+      <c r="H2">
+        <f>G2-F2</f>
+        <v>92.699999999999932</v>
+      </c>
+      <c r="I2">
+        <v>0.5</v>
+      </c>
+      <c r="J2">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="K2">
+        <v>7101491</v>
+      </c>
+      <c r="L2">
+        <v>645139260</v>
+      </c>
+      <c r="M2">
+        <v>529014193.19999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>23.37</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>23.63</v>
+      </c>
+      <c r="F3">
+        <v>1056</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="0">PRODUCT(D3,E3)</f>
+        <v>1181.5</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="1">G3-F3</f>
+        <v>125.5</v>
+      </c>
+      <c r="I3">
+        <v>1.7</v>
+      </c>
+      <c r="J3">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="K3">
+        <v>30108719</v>
+      </c>
+      <c r="L3">
+        <v>428006078</v>
+      </c>
+      <c r="M3">
+        <v>20886696.579999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>48.87</v>
+      </c>
+      <c r="D4">
+        <v>98</v>
+      </c>
+      <c r="E4">
+        <v>48.97</v>
+      </c>
+      <c r="F4">
+        <v>4794.16</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>4799.0599999999995</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>4.8999999999996362</v>
+      </c>
+      <c r="I4">
+        <v>-0.88</v>
+      </c>
+      <c r="J4">
+        <v>-7.1999999999999998E-3</v>
+      </c>
+      <c r="K4">
+        <v>3348106</v>
+      </c>
+      <c r="L4">
+        <v>972865790</v>
+      </c>
+      <c r="M4">
+        <v>156631393.80000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>5.47</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>5.65</v>
+      </c>
+      <c r="F5">
+        <v>238</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>282.5</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>44.5</v>
+      </c>
+      <c r="I5">
+        <v>-0.02</v>
+      </c>
+      <c r="J5">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="K5">
+        <v>35741651</v>
+      </c>
+      <c r="L5">
+        <v>2761519425</v>
+      </c>
+      <c r="M5">
+        <v>124268374.09999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>12.76</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>12.56</v>
+      </c>
+      <c r="F6">
+        <v>394.24</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>401.92</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>7.6800000000000068</v>
+      </c>
+      <c r="I6">
+        <v>-0.06</v>
+      </c>
+      <c r="J6">
+        <v>-4.8999999999999998E-3</v>
+      </c>
+      <c r="K6">
+        <v>821145</v>
+      </c>
+      <c r="L6">
+        <v>8623425</v>
+      </c>
+      <c r="M6">
+        <v>4540324.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>6.97</v>
+      </c>
+      <c r="D7">
+        <v>240</v>
+      </c>
+      <c r="E7">
+        <v>6.99</v>
+      </c>
+      <c r="F7">
+        <v>1533.6</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1677.6000000000001</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>144.00000000000023</v>
+      </c>
+      <c r="I7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J7">
+        <v>9.06E-2</v>
+      </c>
+      <c r="K7">
+        <v>54403778</v>
+      </c>
+      <c r="L7">
+        <v>1381554339</v>
+      </c>
+      <c r="M7">
+        <v>22442965.539999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8">
+        <v>3.85</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>3.78</v>
+      </c>
+      <c r="F8">
+        <v>345</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>378</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="I8">
+        <v>-0.54</v>
+      </c>
+      <c r="J8">
+        <v>-1.9599999999999999E-2</v>
+      </c>
+      <c r="K8">
+        <v>798509</v>
+      </c>
+      <c r="L8">
+        <v>74252857</v>
+      </c>
+      <c r="M8">
+        <v>8016338.4100000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9">
+        <v>211.06</v>
+      </c>
+      <c r="D9">
+        <v>350</v>
+      </c>
+      <c r="E9">
+        <v>226.89</v>
+      </c>
+      <c r="F9">
+        <v>74515</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>79411.5</v>
+      </c>
+      <c r="H9">
+        <f>G9-F9</f>
+        <v>4896.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>6.01</v>
+      </c>
+      <c r="D10">
+        <v>1250</v>
+      </c>
+      <c r="E10">
+        <v>5.99</v>
+      </c>
+      <c r="F10">
+        <v>7537.5</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>7487.5</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>-50</v>
+      </c>
+      <c r="I10">
+        <v>-0.63</v>
+      </c>
+      <c r="J10">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="K10">
+        <v>6900</v>
+      </c>
+      <c r="L10">
+        <v>20070662</v>
+      </c>
+      <c r="M10">
+        <v>16056529.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11">
+        <v>437.13</v>
+      </c>
+      <c r="D11">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>431.79</v>
+      </c>
+      <c r="F11">
+        <v>8926.0500000000011</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>9067.59</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>141.53999999999905</v>
+      </c>
+      <c r="I11">
+        <v>2.16</v>
+      </c>
+      <c r="J11">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="K11">
+        <v>9265930</v>
+      </c>
+      <c r="L11">
+        <v>667914508</v>
+      </c>
+      <c r="M11">
+        <v>319169493.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <v>100000.51</v>
+      </c>
+      <c r="G12">
+        <f>SUM(G2:G11)</f>
+        <v>105440.83</v>
+      </c>
+      <c r="H12">
+        <f>SUM(H2:H11)</f>
+        <v>5440.3199999999988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>127.39</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>125.61</v>
+      </c>
+      <c r="F18">
+        <f>E18*D18</f>
+        <v>753.66</v>
+      </c>
+      <c r="G18">
+        <f>PRODUCT(D18,E18)</f>
+        <v>753.66</v>
+      </c>
+      <c r="H18">
+        <v>92.699999999999932</v>
+      </c>
+      <c r="I18">
+        <v>0.5</v>
+      </c>
+      <c r="J18">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="K18">
+        <v>7101491</v>
+      </c>
+      <c r="L18">
+        <v>645139260</v>
+      </c>
+      <c r="M18">
+        <v>529014193.19999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>23.37</v>
+      </c>
+      <c r="D19">
+        <v>99</v>
+      </c>
+      <c r="E19">
+        <v>23.63</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ref="F19:F27" si="2">E19*D19</f>
+        <v>2339.37</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ref="G19:G27" si="3">PRODUCT(D19,E19)</f>
+        <v>2339.37</v>
+      </c>
+      <c r="H19">
+        <v>125.5</v>
+      </c>
+      <c r="I19">
+        <v>1.7</v>
+      </c>
+      <c r="J19">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="K19">
+        <v>30108719</v>
+      </c>
+      <c r="L19">
+        <v>428006078</v>
+      </c>
+      <c r="M19">
+        <v>20886696.579999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20">
+        <v>48.87</v>
+      </c>
+      <c r="D20">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>48.97</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>1028.3699999999999</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>1028.3699999999999</v>
+      </c>
+      <c r="H20">
+        <v>4.8999999999996362</v>
+      </c>
+      <c r="I20">
+        <v>-0.88</v>
+      </c>
+      <c r="J20">
+        <v>-7.1999999999999998E-3</v>
+      </c>
+      <c r="K20">
+        <v>3348106</v>
+      </c>
+      <c r="L20">
+        <v>972865790</v>
+      </c>
+      <c r="M20">
+        <v>156631393.80000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>5.47</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>5.65</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>56.5</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>56.5</v>
+      </c>
+      <c r="H21">
+        <v>44.5</v>
+      </c>
+      <c r="I21">
+        <v>-0.02</v>
+      </c>
+      <c r="J21">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="K21">
+        <v>35741651</v>
+      </c>
+      <c r="L21">
+        <v>2761519425</v>
+      </c>
+      <c r="M21">
+        <v>124268374.09999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>12.76</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>12.56</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>25.12</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>25.12</v>
+      </c>
+      <c r="H22">
+        <v>7.6800000000000068</v>
+      </c>
+      <c r="I22">
+        <v>-0.06</v>
+      </c>
+      <c r="J22">
+        <v>-4.8999999999999998E-3</v>
+      </c>
+      <c r="K22">
+        <v>821145</v>
+      </c>
+      <c r="L22">
+        <v>8623425</v>
+      </c>
+      <c r="M22">
+        <v>4540324.03</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>6.97</v>
+      </c>
+      <c r="D23">
+        <v>105</v>
+      </c>
+      <c r="E23">
+        <v>6.99</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>733.95</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>733.95</v>
+      </c>
+      <c r="H23">
+        <v>144.00000000000023</v>
+      </c>
+      <c r="I23">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J23">
+        <v>9.06E-2</v>
+      </c>
+      <c r="K23">
+        <v>54403778</v>
+      </c>
+      <c r="L23">
+        <v>1381554339</v>
+      </c>
+      <c r="M23">
+        <v>22442965.539999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24">
+        <v>3.85</v>
+      </c>
+      <c r="D24">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>3.78</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>75.599999999999994</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>75.599999999999994</v>
+      </c>
+      <c r="H24">
+        <v>33</v>
+      </c>
+      <c r="I24">
+        <v>-0.54</v>
+      </c>
+      <c r="J24">
+        <v>-1.9599999999999999E-2</v>
+      </c>
+      <c r="K24">
+        <v>798509</v>
+      </c>
+      <c r="L24">
+        <v>74252857</v>
+      </c>
+      <c r="M24">
+        <v>8016338.4100000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25">
+        <v>211.06</v>
+      </c>
+      <c r="D25">
+        <v>376</v>
+      </c>
+      <c r="E25">
+        <v>226.89</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>85310.64</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>85310.64</v>
+      </c>
+      <c r="H25">
+        <v>4896.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26">
+        <v>6.01</v>
+      </c>
+      <c r="D26">
+        <v>102</v>
+      </c>
+      <c r="E26">
+        <v>5.99</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>610.98</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>610.98</v>
+      </c>
+      <c r="H26">
+        <v>-50</v>
+      </c>
+      <c r="I26">
+        <v>-0.63</v>
+      </c>
+      <c r="J26">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="K26">
+        <v>6900</v>
+      </c>
+      <c r="L26">
+        <v>20070662</v>
+      </c>
+      <c r="M26">
+        <v>16056529.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27">
+        <v>437.13</v>
+      </c>
+      <c r="D27">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>431.79</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>9067.59</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>9067.59</v>
+      </c>
+      <c r="H27">
+        <v>141.53999999999905</v>
+      </c>
+      <c r="I27">
+        <v>2.16</v>
+      </c>
+      <c r="J27">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="K27">
+        <v>9265930</v>
+      </c>
+      <c r="L27">
+        <v>667914508</v>
+      </c>
+      <c r="M27">
+        <v>319169493.38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F28">
+        <f>SUM(F18:F27)</f>
+        <v>100001.77999999998</v>
+      </c>
+      <c r="G28">
+        <f>SUM(G18:G27)</f>
+        <v>100001.77999999998</v>
+      </c>
+      <c r="H28">
+        <f>SUM(H18:H27)</f>
+        <v>5440.3199999999988</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H2:H8 H10:H12">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:H24 H26:H28">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="https://dps.psx.com.pk/company/PAEL" xr:uid="{056AFBEA-8654-4E76-BB4E-BFF897F3456D}"/>
+    <hyperlink ref="A5" r:id="rId2" display="https://dps.psx.com.pk/company/KEL" xr:uid="{45E24309-72DB-4ACB-ABCB-F4189334F931}"/>
+    <hyperlink ref="A7" r:id="rId3" display="https://dps.psx.com.pk/company/BOP" xr:uid="{47F56F87-8372-40A8-9474-C6A62254817F}"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://dps.psx.com.pk/company/BAFL" xr:uid="{649B3AB8-67AC-4373-83F8-48B2EE0263F8}"/>
+    <hyperlink ref="B8" r:id="rId5" display="https://dps.psx.com.pk/company/HIFA" xr:uid="{46FC09E2-3B7C-40F7-839D-F72AA79AD220}"/>
+    <hyperlink ref="A11" r:id="rId6" display="https://dps.psx.com.pk/company/SYS" xr:uid="{FBEFA9FF-1578-4BFD-BB38-AF68B831A288}"/>
+    <hyperlink ref="B11" r:id="rId7" display="https://dps.psx.com.pk/company/SYS" xr:uid="{04318C8C-C8C5-42D9-A3EF-3981E756CEE6}"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://dps.psx.com.pk/company/HCAR" xr:uid="{FF5B4AF0-6188-4B39-A2CB-8C292D201E16}"/>
+    <hyperlink ref="B9" r:id="rId9" display="https://dps.psx.com.pk/company/HCAR" xr:uid="{062A4D59-E47A-4A05-AC06-3BEBB20EB97B}"/>
+    <hyperlink ref="A19" r:id="rId10" display="https://dps.psx.com.pk/company/PAEL" xr:uid="{5D7D0BE8-BE2B-4AE7-803D-478B2DD0ECBA}"/>
+    <hyperlink ref="A21" r:id="rId11" display="https://dps.psx.com.pk/company/KEL" xr:uid="{BBF1EB54-C160-4394-A88D-DF7E58A367A1}"/>
+    <hyperlink ref="A23" r:id="rId12" display="https://dps.psx.com.pk/company/BOP" xr:uid="{CD677646-16C3-4585-9AC0-DE3323EE3B70}"/>
+    <hyperlink ref="B20" r:id="rId13" display="https://dps.psx.com.pk/company/BAFL" xr:uid="{0C63CE17-D5DD-480B-8DF9-C17C93D093A3}"/>
+    <hyperlink ref="B24" r:id="rId14" display="https://dps.psx.com.pk/company/HIFA" xr:uid="{4C8C060C-9AAA-44E1-9B58-42740B145C46}"/>
+    <hyperlink ref="A27" r:id="rId15" display="https://dps.psx.com.pk/company/SYS" xr:uid="{C287DCD9-F0B8-406D-A6AE-B8869FD27B8B}"/>
+    <hyperlink ref="B27" r:id="rId16" display="https://dps.psx.com.pk/company/SYS" xr:uid="{20CCDFF3-D194-40C5-A5D4-46279FC01121}"/>
+    <hyperlink ref="A25" r:id="rId17" display="https://dps.psx.com.pk/company/HCAR" xr:uid="{4A6A1BE1-F3FB-4914-B95E-62E6EBC3C2F4}"/>
+    <hyperlink ref="B25" r:id="rId18" display="https://dps.psx.com.pk/company/HCAR" xr:uid="{E7BD2E39-4621-4EFF-8D76-80346328463F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6132101A-1227-4897-A88B-A4D287C567FD}">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>125.61</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2">
+        <v>125.04</v>
+      </c>
+      <c r="F2">
+        <v>753.66</v>
+      </c>
+      <c r="G2">
+        <f>PRODUCT(D2,E2)</f>
+        <v>750.24</v>
+      </c>
+      <c r="H2">
+        <f>G2-F2</f>
+        <v>-3.4199999999999591</v>
+      </c>
+      <c r="I2">
+        <v>0.5</v>
+      </c>
+      <c r="J2">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="K2">
+        <v>7101491</v>
+      </c>
+      <c r="L2">
+        <v>645139260</v>
+      </c>
+      <c r="M2">
+        <v>529014193.19999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>23.63</v>
+      </c>
+      <c r="D3">
+        <v>99</v>
+      </c>
+      <c r="E3" s="2">
+        <v>23.59</v>
+      </c>
+      <c r="F3">
+        <v>2339.37</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="0">PRODUCT(D3,E3)</f>
+        <v>2335.41</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="1">G3-F3</f>
+        <v>-3.9600000000000364</v>
+      </c>
+      <c r="I3">
+        <v>1.7</v>
+      </c>
+      <c r="J3">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="K3">
+        <v>30108719</v>
+      </c>
+      <c r="L3">
+        <v>428006078</v>
+      </c>
+      <c r="M3">
+        <v>20886696.579999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>48.97</v>
+      </c>
+      <c r="D4">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3">
+        <v>49.56</v>
+      </c>
+      <c r="F4">
+        <v>1028.3699999999999</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1040.76</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>12.3900000000001</v>
+      </c>
+      <c r="I4">
+        <v>-0.88</v>
+      </c>
+      <c r="J4">
+        <v>-7.1999999999999998E-3</v>
+      </c>
+      <c r="K4">
+        <v>3348106</v>
+      </c>
+      <c r="L4">
+        <v>972865790</v>
+      </c>
+      <c r="M4">
+        <v>156631393.80000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>5.65</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6.12</v>
+      </c>
+      <c r="F5">
+        <v>56.5</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>61.2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>4.7000000000000028</v>
+      </c>
+      <c r="I5">
+        <v>-0.02</v>
+      </c>
+      <c r="J5">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="K5">
+        <v>35741651</v>
+      </c>
+      <c r="L5">
+        <v>2761519425</v>
+      </c>
+      <c r="M5">
+        <v>124268374.09999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>12.56</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>12.01</v>
+      </c>
+      <c r="F6">
+        <v>25.12</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>24.02</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>-1.1000000000000014</v>
+      </c>
+      <c r="I6">
+        <v>-0.06</v>
+      </c>
+      <c r="J6">
+        <v>-4.8999999999999998E-3</v>
+      </c>
+      <c r="K6">
+        <v>821145</v>
+      </c>
+      <c r="L6">
+        <v>8623425</v>
+      </c>
+      <c r="M6">
+        <v>4540324.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>6.99</v>
+      </c>
+      <c r="D7">
+        <v>105</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6.92</v>
+      </c>
+      <c r="F7">
+        <v>733.95</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>726.6</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>-7.3500000000000227</v>
+      </c>
+      <c r="I7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J7">
+        <v>9.06E-2</v>
+      </c>
+      <c r="K7">
+        <v>54403778</v>
+      </c>
+      <c r="L7">
+        <v>1381554339</v>
+      </c>
+      <c r="M7">
+        <v>22442965.539999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8">
+        <v>3.78</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3.73</v>
+      </c>
+      <c r="F8">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>74.599999999999994</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="I8">
+        <v>-0.54</v>
+      </c>
+      <c r="J8">
+        <v>-1.9599999999999999E-2</v>
+      </c>
+      <c r="K8">
+        <v>798509</v>
+      </c>
+      <c r="L8">
+        <v>74252857</v>
+      </c>
+      <c r="M8">
+        <v>8016338.4100000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9">
+        <v>226.89</v>
+      </c>
+      <c r="D9">
+        <v>376</v>
+      </c>
+      <c r="E9" s="2">
+        <v>243.91</v>
+      </c>
+      <c r="F9">
+        <v>85310.64</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>91710.16</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>6399.5200000000041</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>5.99</v>
+      </c>
+      <c r="D10">
+        <v>102</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5.83</v>
+      </c>
+      <c r="F10">
+        <v>610.98</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>594.66</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>-16.32000000000005</v>
+      </c>
+      <c r="I10">
+        <v>-0.63</v>
+      </c>
+      <c r="J10">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="K10">
+        <v>6900</v>
+      </c>
+      <c r="L10">
+        <v>20070662</v>
+      </c>
+      <c r="M10">
+        <v>16056529.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11">
+        <v>431.79</v>
+      </c>
+      <c r="D11">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2">
+        <v>430.54</v>
+      </c>
+      <c r="F11">
+        <v>9067.59</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>9041.34</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>-26.25</v>
+      </c>
+      <c r="I11">
+        <v>2.16</v>
+      </c>
+      <c r="J11">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="K11">
+        <v>9265930</v>
+      </c>
+      <c r="L11">
+        <v>667914508</v>
+      </c>
+      <c r="M11">
+        <v>319169493.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <f>SUM(F2:F11)</f>
+        <v>100001.77999999998</v>
+      </c>
+      <c r="G12">
+        <f>SUM(G2:G11)</f>
+        <v>106358.99</v>
+      </c>
+      <c r="H12">
+        <f>SUM(H2:H11)</f>
+        <v>6357.2100000000046</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H2:H12">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="https://dps.psx.com.pk/company/PAEL" xr:uid="{5F8E7B74-D931-4905-B3CA-AFA2390CDB59}"/>
+    <hyperlink ref="A5" r:id="rId2" display="https://dps.psx.com.pk/company/KEL" xr:uid="{0702B68B-9B76-47C3-AAD4-2D00A13BB732}"/>
+    <hyperlink ref="A7" r:id="rId3" display="https://dps.psx.com.pk/company/BOP" xr:uid="{5EDB9262-FD5A-4494-B2C8-D8652FF560F0}"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://dps.psx.com.pk/company/BAFL" xr:uid="{E1AA78AB-1C73-49E9-81CC-F570E1729022}"/>
+    <hyperlink ref="B8" r:id="rId5" display="https://dps.psx.com.pk/company/HIFA" xr:uid="{CCAAADFB-2853-47B8-B8D7-CE281A365C22}"/>
+    <hyperlink ref="A11" r:id="rId6" display="https://dps.psx.com.pk/company/SYS" xr:uid="{087119D0-C8AD-4E65-88E3-1A6002B29D52}"/>
+    <hyperlink ref="B11" r:id="rId7" display="https://dps.psx.com.pk/company/SYS" xr:uid="{BE0F424B-D308-48C6-AA69-0380B8482A41}"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://dps.psx.com.pk/company/HCAR" xr:uid="{CEC3F025-CF46-4F06-BB24-5FEE8B8254F2}"/>
+    <hyperlink ref="B9" r:id="rId9" display="https://dps.psx.com.pk/company/HCAR" xr:uid="{01FDD191-4551-41A2-A23C-6A5F3BF048DB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
